--- a/Assignment 8/H-y-Diagramm analysis.xlsx
+++ b/Assignment 8/H-y-Diagramm analysis.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a61639dd89d78c63/Dokumente/GitHub/NMH-GROUP-2/Assignment 8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62616939-9EF6-4C9E-8392-B6121EE8769C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="8_{62616939-9EF6-4C9E-8392-B6121EE8769C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{FF8F2C31-3D36-4296-914B-502BB07968AB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{719F1BF9-2129-43BE-84C5-7706604C97C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
   <si>
     <t>y</t>
   </si>
@@ -74,11 +75,26 @@
   <si>
     <t>H(inletbc)</t>
   </si>
+  <si>
+    <t>y aus Q</t>
+  </si>
+  <si>
+    <t>Fr</t>
+  </si>
+  <si>
+    <t>Is,2</t>
+  </si>
+  <si>
+    <t>öäällö+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -88,15 +104,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -104,12 +126,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -175,6 +209,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33242782687268213"/>
+          <c:y val="2.0424864757068176E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -211,291 +253,6 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$D$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>H(normalwasser)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tabelle1!$D$6:$D$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="1">
-                  <c:v>1.0656782015249302</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.44141955038123254</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.40729757794721444</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.46035488759530818</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.53862712806099722</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6268243944868036</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.71970771839846792</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.81508872189882708</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.91192195310524604</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0096567820152493</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.1079808115828507</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2067060986217009</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.3057140721983724</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.404926929599617</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.5042919031178885</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6037721804747069</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.7033414470641</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.8029804882763116</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.9026750088684901</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.0024141955038122</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.1021897464887189</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.2019952028957128</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.301825478641824</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.401676524655425</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.5015450851224399</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.6014285180495933</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.7013246614561388</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.8012317323999039</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.9011482499423602</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.0010729757794721</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.1010048680556972</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.2009430451186769</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.3008867568425386</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.400835361766025</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.5007883087359386</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.6007451220690778</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.7007053894824873</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tabelle1!$E$6:$E$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-51EF-4E5D-8560-CE1F3F815295}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -535,133 +292,139 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$C$7:$C$44</c:f>
+              <c:f>Tabelle1!$C$7:$C$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>19.480733944954128</c:v>
+                  <c:v>11.56788990825688</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0451834862385319</c:v>
+                  <c:v>3.0669724770642204</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4534148827726812</c:v>
+                  <c:v>1.57420998980632</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6112958715596331</c:v>
+                  <c:v>1.2818276644066913</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2752293577981653</c:v>
+                  <c:v>1.1167431192660551</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1383537206931704</c:v>
+                  <c:v>0.95871559633027514</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0955251825500842</c:v>
+                  <c:v>0.91855249745157996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1028239678899083</c:v>
+                  <c:v>0.91818268054392382</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1392683203080758</c:v>
+                  <c:v>0.93403856955626274</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1938073394495414</c:v>
+                  <c:v>0.97918577981651378</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2601713549169764</c:v>
+                  <c:v>1.0415788877562577</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3345884301732927</c:v>
+                  <c:v>1.1146788990825689</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4146788990825689</c:v>
+                  <c:v>1.1947759496550157</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.498881295637521</c:v>
+                  <c:v>1.2796381243628949</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.5861365953109072</c:v>
+                  <c:v>1.3678573367352478</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.675705991972477</c:v>
+                  <c:v>1.4585096423890656</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.7670613631313292</c:v>
+                  <c:v>1.5509683995922527</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.8598170800770191</c:v>
+                  <c:v>1.6447964449541286</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.9536862436148312</c:v>
+                  <c:v>1.7396812799593664</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.0484518348623855</c:v>
+                  <c:v>1.8353947219390645</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.1439472425055648</c:v>
+                  <c:v>1.9317670080561131</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.2400428387292441</c:v>
+                  <c:v>2.028669724770642</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.3366365481001021</c:v>
+                  <c:v>2.1260042855062515</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.4336471075433233</c:v>
+                  <c:v>2.2236939874137542</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.5310091743119267</c:v>
+                  <c:v>2.3216784308284626</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.6286697247706421</c:v>
+                  <c:v>2.4199095310907235</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.7265853689231196</c:v>
+                  <c:v>2.5183486238532109</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.8247203239093799</c:v>
+                  <c:v>2.616964334183812</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.9230448679488159</c:v>
+                  <c:v>2.7157309875284734</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.021534148827727</c:v>
+                  <c:v>2.8146274105972662</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.1201672569666536</c:v>
+                  <c:v>2.9136360165377608</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.2189264979931194</c:v>
+                  <c:v>3.0127420998980634</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.3177968172129972</c:v>
+                  <c:v>3.1119332881459489</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.416765340782832</c:v>
+                  <c:v>3.2111991112385323</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.5158210073020033</c:v>
+                  <c:v>3.3105306610727792</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.614954270019255</c:v>
+                  <c:v>3.4099203199898414</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.7141568545982135</c:v>
+                  <c:v>3.5093615427822504</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.8134215609037079</c:v>
+                  <c:v>3.6088486804847664</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.7083768370403631</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.807941752014028</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$E$7:$E$44</c:f>
+              <c:f>Tabelle1!$E$7:$E$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
@@ -672,108 +435,114 @@
                   <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.35099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>0.61209999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>1.2</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>1.3</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>1.4</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>1.6</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>1.7</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>1.8</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>1.9</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>2.1</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>2.2000000000000002</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>2.2999999999999998</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>2.4</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>2.5</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>2.6</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>2.7</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>2.8</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>2.9</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>3.1</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>3.2</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>3.3</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>3.4</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>3.5</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>3.6</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>3.7</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>3.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -796,6 +565,324 @@
         </c:dLbls>
         <c:axId val="668247856"/>
         <c:axId val="371559328"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$D$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>H(normalwasser)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$D$6:$D$45</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="40"/>
+                      <c:pt idx="1">
+                        <c:v>1.0656782015249302</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.44141955038123254</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.40729757794721444</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.46035488759530818</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.53862712806099722</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.6268243944868036</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.63787434687899913</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.71970771839846792</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.81508872189882708</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.91192195310524604</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1.0096567820152493</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1.1079808115828507</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1.2067060986217009</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1.3057140721983724</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1.404926929599617</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1.5042919031178885</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1.6037721804747069</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1.7033414470641</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>1.8029804882763116</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>1.9026750088684901</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>2.0024141955038122</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2.1021897464887189</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2.2019952028957128</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>2.301825478641824</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2.401676524655425</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>2.5015450851224399</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>2.6014285180495933</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>2.7013246614561388</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>2.8012317323999039</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>2.9011482499423602</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>3.0010729757794721</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>3.1010048680556972</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>3.2009430451186769</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>3.3008867568425386</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>3.400835361766025</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>3.5007883087359386</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>3.6007451220690778</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>3.7007053894824873</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$E$6:$E$45</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="40"/>
+                      <c:pt idx="1">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.35099999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.61209999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1.1000000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1.2</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1.3</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1.4</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1.5</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1.6</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1.7</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>1.8</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>1.9</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2.1</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2.2000000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>2.2999999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2.4</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>2.5</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>2.6</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>2.7</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>2.8</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>2.9</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>3.1</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>3.2</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>3.3</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>3.4</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>3.5</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>3.6</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>3.7</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-51EF-4E5D-8560-CE1F3F815295}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="668247856"/>
@@ -1660,16 +1747,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>752705</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45382</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>647699</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38717</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>170367</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1994,10 +2081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEAA3F2-A588-4186-896E-9B8800DC0915}">
-  <dimension ref="C2:N44"/>
+  <dimension ref="B2:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2005,23 +2092,23 @@
     <col min="6" max="6" width="19.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
       <c r="F2" t="s">
         <v>9</v>
       </c>
       <c r="H2">
-        <f>1.5*1.3*0.5</f>
-        <v>0.97500000000000009</v>
-      </c>
-    </row>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="E3" s="1" t="s">
+        <f>1.5*0.5</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
       <c r="J3" t="s">
         <v>6</v>
       </c>
@@ -2036,7 +2123,10 @@
         <v>0.21763849793820444</v>
       </c>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
@@ -2067,10 +2157,16 @@
       <c r="L5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="M5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
       <c r="H6">
-        <f>$K$6*(I6^(2/3))*($L$6^(1/2))</f>
+        <f t="shared" ref="H6:H46" si="0">$K$6*(I6^(2/3))*($L$6^(1/2))</f>
         <v>0</v>
       </c>
       <c r="I6">
@@ -2086,1103 +2182,1751 @@
       <c r="L6">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="M6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <f>G7/((E7*9.81)^0.5)</f>
+        <v>15.144563320384567</v>
+      </c>
       <c r="C7">
         <f>E7+G7^2/(2*9.81)</f>
-        <v>19.480733944954128</v>
+        <v>11.56788990825688</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="C7:D43" si="0">E7+F7^2/(2*9.81)</f>
+        <f t="shared" ref="D7:D58" si="1">E7+F7^2/(2*9.81)</f>
         <v>1.0656782015249302</v>
       </c>
       <c r="E7">
         <v>0.1</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:G44" si="1">$N$3/(E7*$J$6)</f>
+        <f t="shared" ref="F7:F46" si="2">$N$3/(E7*$J$6)</f>
         <v>4.3527699587640889</v>
       </c>
       <c r="G7">
         <f>$H$2/(E7*$J$6)</f>
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="H7">
-        <f>$K$6*(I7^(2/3))*($L$6^(1/2))</f>
+        <f t="shared" si="0"/>
         <v>0.16331869371062074</v>
       </c>
       <c r="I7">
-        <f t="shared" ref="I7:I44" si="2">(E7*$J$6)/($J$6+2*E7)</f>
+        <f t="shared" ref="I7:I46" si="3">(E7*$J$6)/($J$6+2*E7)</f>
         <v>7.1428571428571438E-2</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <f t="shared" ref="B8:B58" si="4">G8/((E8*9.81)^0.5)</f>
+        <v>5.3544117109764917</v>
+      </c>
       <c r="C8">
-        <f t="shared" ref="C8:C44" si="3">E8+G8^2/(2*9.81)</f>
-        <v>5.0451834862385319</v>
+        <f t="shared" ref="C8:C58" si="5">E8+G8^2/(2*9.81)</f>
+        <v>3.0669724770642204</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44141955038123254</v>
       </c>
       <c r="E8">
         <v>0.2</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1763849793820444</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G44" si="4">$H$2/(E8*$J$6)</f>
-        <v>9.75</v>
+        <f>$H$2/(E8*$J$6)</f>
+        <v>7.5</v>
       </c>
       <c r="H8">
-        <f>$K$6*(I8^(2/3))*($L$6^(1/2))</f>
+        <f t="shared" si="0"/>
         <v>0.21926008683048914</v>
       </c>
       <c r="I8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11111111111111112</v>
       </c>
-    </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="O8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <f t="shared" si="4"/>
+        <v>2.9145725699277873</v>
+      </c>
       <c r="C9">
-        <f t="shared" si="3"/>
-        <v>2.4534148827726812</v>
+        <f t="shared" si="5"/>
+        <v>1.57420998980632</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.40729757794721444</v>
       </c>
       <c r="E9">
         <v>0.3</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4509233195880298</v>
       </c>
       <c r="G9">
-        <f t="shared" si="4"/>
-        <v>6.5000000000000009</v>
+        <f t="shared" ref="G9:G58" si="6">$H$2/(E9*$J$6)</f>
+        <v>5</v>
       </c>
       <c r="H9">
-        <f>$K$6*(I9^(2/3))*($L$6^(1/2))</f>
+        <f t="shared" si="0"/>
         <v>0.25133538556715962</v>
       </c>
       <c r="I9">
+        <f t="shared" si="3"/>
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="O9" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="1">
+        <f>(P8*$J$6)/($J$6+2*P8)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <f t="shared" si="4"/>
+        <v>2.3030113624666866</v>
+      </c>
+      <c r="C10" s="3">
+        <f>E10+G10^2/(2*9.81)</f>
+        <v>1.2818276644066913</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="2"/>
-        <v>0.13636363636363635</v>
-      </c>
-    </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C10">
+        <v>1.2401054013572903</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="6"/>
+        <v>4.2735042735042734</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.26304881930717539</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="3"/>
-        <v>1.6112958715596331</v>
-      </c>
-      <c r="D10">
+        <v>0.14600665557404327</v>
+      </c>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <f t="shared" si="4"/>
+        <v>1.8930704150480708</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="5"/>
+        <v>1.1167431192660551</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0.46035488759530818</v>
+      </c>
+      <c r="E11">
+        <v>0.4</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>1.0881924896910222</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="6"/>
+        <v>3.75</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="0"/>
-        <v>0.46035488759530818</v>
-      </c>
-      <c r="E10">
-        <v>0.4</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>1.0881924896910222</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="4"/>
-        <v>4.875</v>
-      </c>
-      <c r="H10">
-        <f>$K$6*(I10^(2/3))*($L$6^(1/2))</f>
         <v>0.27238238417382504</v>
       </c>
-      <c r="I10">
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="O11" t="s">
+        <v>8</v>
+      </c>
+      <c r="P11">
+        <f>$K$6*(P9^(2/3))*($L$6^(1/2))</f>
+        <v>0.32444512413605975</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <f t="shared" si="4"/>
+        <v>1.3545709229571927</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="5"/>
+        <v>0.95871559633027514</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0.53862712806099722</v>
+      </c>
+      <c r="E12">
+        <v>0.5</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="2"/>
-        <v>0.15384615384615385</v>
-      </c>
-    </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C11">
+        <v>0.87055399175281778</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0.28731199282724984</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="3"/>
-        <v>1.2752293577981653</v>
-      </c>
-      <c r="D11">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="2">
+        <f>(H2/(P11*$J$6))</f>
+        <v>4.6232779857433082</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <f t="shared" si="4"/>
+        <v>1.0304570142281206</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="5"/>
+        <v>0.91855249745157996</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0.6268243944868036</v>
+      </c>
+      <c r="E13">
+        <v>0.6</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>0.72546165979401489</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="6"/>
+        <v>2.5</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="0"/>
-        <v>0.53862712806099722</v>
-      </c>
-      <c r="E11">
+        <v>0.29847146020589793</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="O13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f>P12</f>
+        <v>4.6232779857433082</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <f t="shared" si="4"/>
+        <v>1.0000533894323629</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="5"/>
+        <v>0.91818268054392382</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0.63787434687899913</v>
+      </c>
+      <c r="E14">
+        <v>0.61209999999999998</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>0.71112072516975811</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="6"/>
+        <v>2.4505799705930404</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0.29963399410231284</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>0.17750260990604338</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <f t="shared" si="4"/>
+        <v>0.81772955633486066</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="5"/>
+        <v>0.93403856955626274</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>0.71970771839846792</v>
+      </c>
+      <c r="E15">
+        <v>0.7</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>0.62182427982344135</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="6"/>
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0.30713611296568444</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>0.18421052631578946</v>
+      </c>
+      <c r="O15" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="1">
+        <f>(P13*$J$6)/($J$6+2*P13)</f>
+        <v>0.23717495694215623</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <f t="shared" si="4"/>
+        <v>0.66930146387206146</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="5"/>
+        <v>0.97918577981651378</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>0.81508872189882708</v>
+      </c>
+      <c r="E16">
+        <v>0.8</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>0.54409624484551111</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="6"/>
+        <v>1.875</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>0.31406175443641327</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="O16" t="s">
+        <v>8</v>
+      </c>
+      <c r="P16">
+        <f>$K$6*(P15^(2/3))*($L$6^(1/2))</f>
+        <v>0.36349670210587298</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <f t="shared" si="4"/>
+        <v>0.56090975260683573</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="5"/>
+        <v>1.0415788877562577</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>0.91192195310524604</v>
+      </c>
+      <c r="E17">
+        <v>0.9</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>0.48364110652934322</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="6"/>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0.31972581755873442</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>0.19565217391304349</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P17" s="2">
+        <f>($H$2/(P16*0.5))</f>
+        <v>4.1265848941955632</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <f t="shared" si="4"/>
+        <v>0.47891314261057566</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="5"/>
+        <v>1.1146788990825689</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>1.0096567820152493</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>0.43527699587640889</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>0.32444512413605975</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="O18" t="s">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f>P17</f>
+        <v>4.1265848941955632</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <f t="shared" si="4"/>
+        <v>0.41511433179747548</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="5"/>
+        <v>1.1947759496550157</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>1.1079808115828507</v>
+      </c>
+      <c r="E19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>0.39570635988764441</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="6"/>
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>0.32843835752012673</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>0.20370370370370372</v>
+      </c>
+      <c r="O19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P19" s="1">
+        <f>(P18*$J$6)/($J$6+2*P18)</f>
+        <v>0.23571945900492175</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <f t="shared" si="4"/>
+        <v>0.36432157124097342</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="5"/>
+        <v>1.2796381243628949</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>1.2067060986217009</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>0.36273082989700745</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="6"/>
+        <v>1.25</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>0.33186141176187101</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>0.20689655172413793</v>
+      </c>
+      <c r="O20" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20">
+        <f>$K$6*(P19^(2/3))*($L$6^(1/2))</f>
+        <v>0.36200803646534219</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <f t="shared" si="4"/>
+        <v>0.32310354790625867</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="5"/>
+        <v>1.3678573367352478</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>1.3057140721983724</v>
+      </c>
+      <c r="E21">
+        <v>1.3</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>0.33482845836646835</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="6"/>
+        <v>1.1538461538461537</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>0.33482845836646835</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>0.20967741935483872</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P21" s="2">
+        <f>($H$2/(P20*0.5))</f>
+        <v>4.1435544211837039</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <f t="shared" si="4"/>
+        <v>0.28911105723052344</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="5"/>
+        <v>1.4585096423890656</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>1.404926929599617</v>
+      </c>
+      <c r="E22">
+        <v>1.4</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>0.31091213991172068</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="6"/>
+        <v>1.0714285714285714</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>0.33742505043956383</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>0.21212121212121213</v>
+      </c>
+      <c r="O22" t="s">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f>P21</f>
+        <v>4.1435544211837039</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <f t="shared" si="4"/>
+        <v>0.26068729566859167</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="5"/>
+        <v>1.5509683995922527</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>1.5042919031178885</v>
+      </c>
+      <c r="E23">
+        <v>1.5</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>0.29018466391760595</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>0.33971657278943085</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="O23" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="1">
+        <f>(P22*$J$6)/($J$6+2*P22)</f>
+        <v>0.2357746157191877</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <f t="shared" si="4"/>
+        <v>0.23663380188100885</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="5"/>
+        <v>1.6447964449541286</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>1.6037721804747069</v>
+      </c>
+      <c r="E24">
+        <v>1.6</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>0.27204812242275556</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="6"/>
+        <v>0.9375</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>0.3417538611951863</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>0.21621621621621623</v>
+      </c>
+      <c r="O24" t="s">
+        <v>8</v>
+      </c>
+      <c r="P24">
+        <f>$K$6*(P23^(2/3))*($L$6^(1/2))</f>
+        <v>0.36206450583871769</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <f t="shared" si="4"/>
+        <v>0.21606447828304665</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="5"/>
+        <v>1.7396812799593664</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>1.7033414470641</v>
+      </c>
+      <c r="E25">
+        <v>1.7</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>0.25604529169200524</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="6"/>
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>0.3435770400250131</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>0.21794871794871795</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P25" s="2">
+        <f>($H$2/(P24*0.5))</f>
+        <v>4.1429081719161331</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <f t="shared" si="4"/>
+        <v>0.19831154485098118</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="5"/>
+        <v>1.8353947219390645</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>1.8029804882763116</v>
+      </c>
+      <c r="E26">
+        <v>1.8</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>0.24182055326467161</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="6"/>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>0.34521820484316085</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>0.21951219512195125</v>
+      </c>
+      <c r="O26" t="s">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f>P25</f>
+        <v>4.1429081719161331</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <f t="shared" si="4"/>
+        <v>0.18286321622606405</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="5"/>
+        <v>1.9317670080561131</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>1.9026750088684901</v>
+      </c>
+      <c r="E27">
+        <v>1.9</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>0.22909315572442573</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="6"/>
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>0.34670333656585833</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>0.22093023255813954</v>
+      </c>
+      <c r="O27" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="1">
+        <f>(P26*$J$6)/($J$6+2*P26)</f>
+        <v>0.23577252299523069</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <f t="shared" si="4"/>
+        <v>0.16932136536964909</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="5"/>
+        <v>2.028669724770642</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>2.0024141955038122</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>0.21763849793820444</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="6"/>
+        <v>0.75</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>0.34805369248935708</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="O28" t="s">
+        <v>8</v>
+      </c>
+      <c r="P28">
+        <f>$K$6*(P27^(2/3))*($L$6^(1/2))</f>
+        <v>0.36206236339098519</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <f t="shared" si="4"/>
+        <v>0.15737212649141502</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="5"/>
+        <v>2.1260042855062515</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>2.1021897464887189</v>
+      </c>
+      <c r="E29">
+        <v>2.1</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>0.20727475994114708</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="6"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>0.34928683384200976</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>0.22340425531914893</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P29" s="2">
+        <f>($H$2/(P28*0.5))</f>
+        <v>4.142932686930993</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <f t="shared" si="4"/>
+        <v>0.14676507949085871</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="5"/>
+        <v>2.2236939874137542</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>2.2019952028957128</v>
+      </c>
+      <c r="E30">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>0.1978531799438222</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="6"/>
+        <v>0.68181818181818177</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>0.35041739611555239</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>0.22448979591836735</v>
+      </c>
+      <c r="O30" t="s">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f>P29</f>
+        <v>4.142932686930993</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <f t="shared" si="4"/>
+        <v>0.13729824986522846</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="5"/>
+        <v>2.3216784308284626</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>2.301825478641824</v>
+      </c>
+      <c r="E31">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>0.1892508677723517</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="6"/>
+        <v>0.65217391304347827</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>0.35145767433236169</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>0.22549019607843138</v>
+      </c>
+      <c r="O31" t="s">
+        <v>3</v>
+      </c>
+      <c r="P31" s="1">
+        <f>(P30*$J$6)/($J$6+2*P30)</f>
+        <v>0.23577260239248873</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <f t="shared" si="4"/>
+        <v>0.12880712677851508</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="5"/>
+        <v>2.4199095310907235</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>2.401676524655425</v>
+      </c>
+      <c r="E32">
+        <v>2.4</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>0.18136541494850372</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="6"/>
+        <v>0.625</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>0.35241807315005408</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>0.22641509433962265</v>
+      </c>
+      <c r="O32" t="s">
+        <v>8</v>
+      </c>
+      <c r="P32">
+        <f>$K$6*(P31^(2/3))*($L$6^(1/2))</f>
+        <v>0.36206244467486254</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <f t="shared" si="4"/>
+        <v>0.12115650656307653</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="5"/>
+        <v>2.5183486238532109</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>2.5015450851224399</v>
+      </c>
+      <c r="E33">
+        <v>2.5</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>0.17411079835056356</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="6"/>
+        <v>0.6</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>0.35330745688925369</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P33" s="2">
+        <f>($H$2/(P32*0.5))</f>
+        <v>4.1429317568327813</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>15</v>
+      </c>
+      <c r="R33">
+        <f>P32/(9.81*P33)^0.5</f>
+        <v>5.6793036066255242E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <f t="shared" si="4"/>
+        <v>0.11423435487497402</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="5"/>
+        <v>2.616964334183812</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>2.6014285180495933</v>
+      </c>
+      <c r="E34">
+        <v>2.6</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>0.16741422918323418</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="6"/>
+        <v>0.57692307692307687</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>0.35413342452875363</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>0.22807017543859648</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <f t="shared" si="4"/>
+        <v>0.10794713221954766</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="5"/>
+        <v>2.7157309875284734</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>2.7013246614561388</v>
+      </c>
+      <c r="E35">
+        <v>2.7</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>0.16121370217644773</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="6"/>
+        <v>0.55555555555555547</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>0.35490252779367448</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>0.2288135593220339</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <f t="shared" si="4"/>
+        <v>0.10221619454185758</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="5"/>
+        <v>2.8146274105972662</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>2.8012317323999039</v>
+      </c>
+      <c r="E36">
+        <v>2.8</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>0.15545606995586034</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="6"/>
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>0.35562044562297868</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>0.22950819672131148</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <f t="shared" si="4"/>
+        <v>9.6974993355951306E-2</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="5"/>
+        <v>2.9136360165377608</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>2.9011482499423602</v>
+      </c>
+      <c r="E37">
+        <v>2.9</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>0.15009551581945135</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="6"/>
+        <v>0.51724137931034486</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>0.3562921248705902</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>0.23015873015873015</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <f t="shared" si="4"/>
+        <v>9.2166877268221828E-2</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="5"/>
+        <v>3.0127420998980634</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>3.0010729757794721</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>0.14509233195880297</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>0.87055399175281778</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="4"/>
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="H11">
-        <f>$K$6*(I11^(2/3))*($L$6^(1/2))</f>
-        <v>0.28731199282724984</v>
-      </c>
-      <c r="I11">
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>0.35692189462882679</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <f t="shared" si="4"/>
+        <v>8.7743350620041502E-2</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="5"/>
+        <v>3.1119332881459489</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>3.1010048680556972</v>
+      </c>
+      <c r="E39">
+        <v>3.1</v>
+      </c>
+      <c r="F39">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C12">
+        <v>0.14041193415368028</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="6"/>
+        <v>0.48387096774193544</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>0.35751355977049359</v>
+      </c>
+      <c r="I39">
         <f t="shared" si="3"/>
-        <v>1.1383537206931704</v>
-      </c>
-      <c r="D12">
+        <v>0.23134328358208955</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <f t="shared" si="4"/>
+        <v>8.3662682984007683E-2</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="5"/>
+        <v>3.2111991112385323</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>3.2009430451186769</v>
+      </c>
+      <c r="E40">
+        <v>3.2</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>0.13602406121137778</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="6"/>
+        <v>0.46875</v>
+      </c>
+      <c r="H40">
         <f t="shared" si="0"/>
-        <v>0.6268243944868036</v>
-      </c>
-      <c r="E12">
-        <v>0.6</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>0.72546165979401489</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="4"/>
-        <v>3.2500000000000004</v>
-      </c>
-      <c r="H12">
-        <f>$K$6*(I12^(2/3))*($L$6^(1/2))</f>
-        <v>0.29847146020589793</v>
-      </c>
-      <c r="I12">
+        <v>0.35807047798853092</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>0.2318840579710145</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <f t="shared" si="4"/>
+        <v>7.98887904025814E-2</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="5"/>
+        <v>3.3105306610727792</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>3.3008867568425386</v>
+      </c>
+      <c r="E41">
+        <v>3.3</v>
+      </c>
+      <c r="F41">
         <f t="shared" si="2"/>
-        <v>0.17647058823529413</v>
-      </c>
-    </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C13">
+        <v>0.13190211996254816</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="6"/>
+        <v>0.45454545454545459</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>0.35859562363369718</v>
+      </c>
+      <c r="I41">
         <f t="shared" si="3"/>
-        <v>1.0955251825500842</v>
-      </c>
-      <c r="D13">
+        <v>0.23239436619718309</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <f t="shared" si="4"/>
+        <v>7.639032888373791E-2</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="5"/>
+        <v>3.4099203199898414</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>3.400835361766025</v>
+      </c>
+      <c r="E42">
+        <v>3.4</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>0.12802264584600262</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="6"/>
+        <v>0.44117647058823528</v>
+      </c>
+      <c r="H42">
         <f t="shared" si="0"/>
-        <v>0.71970771839846792</v>
-      </c>
-      <c r="E13">
-        <v>0.7</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>0.62182427982344135</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="4"/>
-        <v>2.785714285714286</v>
-      </c>
-      <c r="H13">
-        <f>$K$6*(I13^(2/3))*($L$6^(1/2))</f>
-        <v>0.30713611296568444</v>
-      </c>
-      <c r="I13">
+        <v>0.35909164091712381</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="3"/>
+        <v>0.23287671232876711</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <f t="shared" si="4"/>
+        <v>7.3139955007019697E-2</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="5"/>
+        <v>3.5093615427822504</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>3.5007883087359386</v>
+      </c>
+      <c r="E43">
+        <v>3.5</v>
+      </c>
+      <c r="F43">
         <f t="shared" si="2"/>
-        <v>0.18421052631578946</v>
-      </c>
-    </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C14">
+        <v>0.12436485596468826</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="6"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>0.3595608884894857</v>
+      </c>
+      <c r="I43">
         <f t="shared" si="3"/>
-        <v>1.1028239678899083</v>
-      </c>
-      <c r="D14">
+        <v>0.23333333333333334</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <f t="shared" si="4"/>
+        <v>7.0113719075854467E-2</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="5"/>
+        <v>3.6088486804847664</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>3.6007451220690778</v>
+      </c>
+      <c r="E44">
+        <v>3.6</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>0.12091027663233581</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="6"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="H44">
         <f t="shared" si="0"/>
-        <v>0.81508872189882708</v>
-      </c>
-      <c r="E14">
-        <v>0.8</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
-        <v>0.54409624484551111</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="4"/>
-        <v>2.4375</v>
-      </c>
-      <c r="H14">
-        <f>$K$6*(I14^(2/3))*($L$6^(1/2))</f>
-        <v>0.31406175443641327</v>
-      </c>
-      <c r="I14">
+        <v>0.36000547698496255</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="3"/>
+        <v>0.23376623376623376</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <f t="shared" si="4"/>
+        <v>6.7290564136569767E-2</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="5"/>
+        <v>3.7083768370403631</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>3.7007053894824873</v>
+      </c>
+      <c r="E45">
+        <v>3.7</v>
+      </c>
+      <c r="F45">
         <f t="shared" si="2"/>
-        <v>0.19047619047619047</v>
-      </c>
-    </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C15">
+        <v>0.11764243131794834</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="6"/>
+        <v>0.40540540540540537</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>0.36042730079237945</v>
+      </c>
+      <c r="I45">
         <f t="shared" si="3"/>
-        <v>1.1392683203080758</v>
-      </c>
-      <c r="D15">
+        <v>0.23417721518987342</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <f t="shared" si="4"/>
+        <v>6.4651910111515901E-2</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="5"/>
+        <v>3.807941752014028</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>3.8006687522171223</v>
+      </c>
+      <c r="E46">
+        <v>3.8</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>0.11454657786221287</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="6"/>
+        <v>0.39473684210526316</v>
+      </c>
+      <c r="H46">
         <f t="shared" si="0"/>
-        <v>0.91192195310524604</v>
-      </c>
-      <c r="E15">
-        <v>0.9</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
-        <v>0.48364110652934322</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="4"/>
-        <v>2.166666666666667</v>
-      </c>
-      <c r="H15">
-        <f>$K$6*(I15^(2/3))*($L$6^(1/2))</f>
-        <v>0.31972581755873442</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="2"/>
-        <v>0.19565217391304349</v>
-      </c>
-    </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C16">
+        <v>0.36082806506344728</v>
+      </c>
+      <c r="I46">
         <f t="shared" si="3"/>
-        <v>1.1938073394495414</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>1.0096567820152493</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
-        <v>0.43527699587640889</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="4"/>
-        <v>1.9500000000000002</v>
-      </c>
-      <c r="H16">
-        <f>$K$6*(I16^(2/3))*($L$6^(1/2))</f>
-        <v>0.32444512413605975</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C17">
-        <f t="shared" si="3"/>
-        <v>1.2601713549169764</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>1.1079808115828507</v>
-      </c>
-      <c r="E17">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
-        <v>0.39570635988764441</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="4"/>
-        <v>1.7727272727272727</v>
-      </c>
-      <c r="H17">
-        <f>$K$6*(I17^(2/3))*($L$6^(1/2))</f>
-        <v>0.32843835752012673</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="2"/>
-        <v>0.20370370370370372</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C18">
-        <f t="shared" si="3"/>
-        <v>1.3345884301732927</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>1.2067060986217009</v>
-      </c>
-      <c r="E18">
-        <v>1.2</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>0.36273082989700745</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="4"/>
-        <v>1.6250000000000002</v>
-      </c>
-      <c r="H18">
-        <f>$K$6*(I18^(2/3))*($L$6^(1/2))</f>
-        <v>0.33186141176187101</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="2"/>
-        <v>0.20689655172413793</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C19">
-        <f t="shared" si="3"/>
-        <v>1.4146788990825689</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>1.3057140721983724</v>
-      </c>
-      <c r="E19">
-        <v>1.3</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>0.33482845836646835</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
-      </c>
-      <c r="H19">
-        <f>$K$6*(I19^(2/3))*($L$6^(1/2))</f>
-        <v>0.33482845836646835</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="2"/>
-        <v>0.20967741935483872</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C20">
-        <f t="shared" si="3"/>
-        <v>1.498881295637521</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>1.404926929599617</v>
-      </c>
-      <c r="E20">
-        <v>1.4</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="1"/>
-        <v>0.31091213991172068</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="4"/>
-        <v>1.392857142857143</v>
-      </c>
-      <c r="H20">
-        <f>$K$6*(I20^(2/3))*($L$6^(1/2))</f>
-        <v>0.33742505043956383</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="2"/>
-        <v>0.21212121212121213</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C21">
-        <f t="shared" si="3"/>
-        <v>1.5861365953109072</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>1.5042919031178885</v>
-      </c>
-      <c r="E21">
-        <v>1.5</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="1"/>
-        <v>0.29018466391760595</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="4"/>
-        <v>1.3</v>
-      </c>
-      <c r="H21">
-        <f>$K$6*(I21^(2/3))*($L$6^(1/2))</f>
-        <v>0.33971657278943085</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="2"/>
-        <v>0.21428571428571427</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C22">
-        <f t="shared" si="3"/>
-        <v>1.675705991972477</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>1.6037721804747069</v>
-      </c>
-      <c r="E22">
-        <v>1.6</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="1"/>
-        <v>0.27204812242275556</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="4"/>
-        <v>1.21875</v>
-      </c>
-      <c r="H22">
-        <f>$K$6*(I22^(2/3))*($L$6^(1/2))</f>
-        <v>0.3417538611951863</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="2"/>
-        <v>0.21621621621621623</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C23">
-        <f t="shared" si="3"/>
-        <v>1.7670613631313292</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>1.7033414470641</v>
-      </c>
-      <c r="E23">
-        <v>1.7</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="1"/>
-        <v>0.25604529169200524</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="4"/>
-        <v>1.1470588235294119</v>
-      </c>
-      <c r="H23">
-        <f>$K$6*(I23^(2/3))*($L$6^(1/2))</f>
-        <v>0.3435770400250131</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="2"/>
-        <v>0.21794871794871795</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C24">
-        <f t="shared" si="3"/>
-        <v>1.8598170800770191</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>1.8029804882763116</v>
-      </c>
-      <c r="E24">
-        <v>1.8</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="1"/>
-        <v>0.24182055326467161</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="4"/>
-        <v>1.0833333333333335</v>
-      </c>
-      <c r="H24">
-        <f>$K$6*(I24^(2/3))*($L$6^(1/2))</f>
-        <v>0.34521820484316085</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="2"/>
-        <v>0.21951219512195125</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C25">
-        <f t="shared" si="3"/>
-        <v>1.9536862436148312</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>1.9026750088684901</v>
-      </c>
-      <c r="E25">
-        <v>1.9</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="1"/>
-        <v>0.22909315572442573</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="4"/>
-        <v>1.0263157894736843</v>
-      </c>
-      <c r="H25">
-        <f>$K$6*(I25^(2/3))*($L$6^(1/2))</f>
-        <v>0.34670333656585833</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="2"/>
-        <v>0.22093023255813954</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C26">
-        <f t="shared" si="3"/>
-        <v>2.0484518348623855</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>2.0024141955038122</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="1"/>
-        <v>0.21763849793820444</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="4"/>
-        <v>0.97500000000000009</v>
-      </c>
-      <c r="H26">
-        <f>$K$6*(I26^(2/3))*($L$6^(1/2))</f>
-        <v>0.34805369248935708</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="2"/>
-        <v>0.22222222222222221</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C27">
-        <f t="shared" si="3"/>
-        <v>2.1439472425055648</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>2.1021897464887189</v>
-      </c>
-      <c r="E27">
-        <v>2.1</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="1"/>
-        <v>0.20727475994114708</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="4"/>
-        <v>0.9285714285714286</v>
-      </c>
-      <c r="H27">
-        <f>$K$6*(I27^(2/3))*($L$6^(1/2))</f>
-        <v>0.34928683384200976</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="2"/>
-        <v>0.22340425531914893</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C28">
-        <f t="shared" si="3"/>
-        <v>2.2400428387292441</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>2.2019952028957128</v>
-      </c>
-      <c r="E28">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="1"/>
-        <v>0.1978531799438222</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="4"/>
-        <v>0.88636363636363635</v>
-      </c>
-      <c r="H28">
-        <f>$K$6*(I28^(2/3))*($L$6^(1/2))</f>
-        <v>0.35041739611555239</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="2"/>
-        <v>0.22448979591836735</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C29">
-        <f t="shared" si="3"/>
-        <v>2.3366365481001021</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>2.301825478641824</v>
-      </c>
-      <c r="E29">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="1"/>
-        <v>0.1892508677723517</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="4"/>
-        <v>0.84782608695652184</v>
-      </c>
-      <c r="H29">
-        <f>$K$6*(I29^(2/3))*($L$6^(1/2))</f>
-        <v>0.35145767433236169</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="2"/>
-        <v>0.22549019607843138</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C30">
-        <f t="shared" si="3"/>
-        <v>2.4336471075433233</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>2.401676524655425</v>
-      </c>
-      <c r="E30">
-        <v>2.4</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="1"/>
-        <v>0.18136541494850372</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="4"/>
-        <v>0.81250000000000011</v>
-      </c>
-      <c r="H30">
-        <f>$K$6*(I30^(2/3))*($L$6^(1/2))</f>
-        <v>0.35241807315005408</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="2"/>
-        <v>0.22641509433962265</v>
-      </c>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C31">
-        <f t="shared" si="3"/>
-        <v>2.5310091743119267</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>2.5015450851224399</v>
-      </c>
-      <c r="E31">
-        <v>2.5</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="1"/>
-        <v>0.17411079835056356</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="4"/>
-        <v>0.78</v>
-      </c>
-      <c r="H31">
-        <f>$K$6*(I31^(2/3))*($L$6^(1/2))</f>
-        <v>0.35330745688925369</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="2"/>
-        <v>0.22727272727272727</v>
-      </c>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C32">
-        <f t="shared" si="3"/>
-        <v>2.6286697247706421</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>2.6014285180495933</v>
-      </c>
-      <c r="E32">
-        <v>2.6</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="1"/>
-        <v>0.16741422918323418</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="4"/>
-        <v>0.75</v>
-      </c>
-      <c r="H32">
-        <f>$K$6*(I32^(2/3))*($L$6^(1/2))</f>
-        <v>0.35413342452875363</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="2"/>
-        <v>0.22807017543859648</v>
-      </c>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C33">
-        <f t="shared" si="3"/>
-        <v>2.7265853689231196</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>2.7013246614561388</v>
-      </c>
-      <c r="E33">
-        <v>2.7</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="1"/>
-        <v>0.16121370217644773</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="4"/>
-        <v>0.72222222222222221</v>
-      </c>
-      <c r="H33">
-        <f>$K$6*(I33^(2/3))*($L$6^(1/2))</f>
-        <v>0.35490252779367448</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="2"/>
-        <v>0.2288135593220339</v>
-      </c>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C34">
-        <f t="shared" si="3"/>
-        <v>2.8247203239093799</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="0"/>
-        <v>2.8012317323999039</v>
-      </c>
-      <c r="E34">
-        <v>2.8</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="1"/>
-        <v>0.15545606995586034</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="4"/>
-        <v>0.69642857142857151</v>
-      </c>
-      <c r="H34">
-        <f>$K$6*(I34^(2/3))*($L$6^(1/2))</f>
-        <v>0.35562044562297868</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="2"/>
-        <v>0.22950819672131148</v>
-      </c>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C35">
-        <f t="shared" si="3"/>
-        <v>2.9230448679488159</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="0"/>
-        <v>2.9011482499423602</v>
-      </c>
-      <c r="E35">
-        <v>2.9</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="1"/>
-        <v>0.15009551581945135</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="4"/>
-        <v>0.6724137931034484</v>
-      </c>
-      <c r="H35">
-        <f>$K$6*(I35^(2/3))*($L$6^(1/2))</f>
-        <v>0.3562921248705902</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="2"/>
-        <v>0.23015873015873015</v>
-      </c>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C36">
-        <f t="shared" si="3"/>
-        <v>3.021534148827727</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="0"/>
-        <v>3.0010729757794721</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="1"/>
-        <v>0.14509233195880297</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="4"/>
-        <v>0.65</v>
-      </c>
-      <c r="H36">
-        <f>$K$6*(I36^(2/3))*($L$6^(1/2))</f>
-        <v>0.35692189462882679</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="2"/>
-        <v>0.23076923076923078</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C37">
-        <f t="shared" si="3"/>
-        <v>3.1201672569666536</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="0"/>
-        <v>3.1010048680556972</v>
-      </c>
-      <c r="E37">
-        <v>3.1</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="1"/>
-        <v>0.14041193415368028</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="4"/>
-        <v>0.62903225806451613</v>
-      </c>
-      <c r="H37">
-        <f>$K$6*(I37^(2/3))*($L$6^(1/2))</f>
-        <v>0.35751355977049359</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="2"/>
-        <v>0.23134328358208955</v>
-      </c>
-    </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C38">
-        <f t="shared" si="3"/>
-        <v>3.2189264979931194</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="0"/>
-        <v>3.2009430451186769</v>
-      </c>
-      <c r="E38">
-        <v>3.2</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="1"/>
-        <v>0.13602406121137778</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="4"/>
-        <v>0.609375</v>
-      </c>
-      <c r="H38">
-        <f>$K$6*(I38^(2/3))*($L$6^(1/2))</f>
-        <v>0.35807047798853092</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="2"/>
-        <v>0.2318840579710145</v>
-      </c>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C39">
-        <f t="shared" si="3"/>
-        <v>3.3177968172129972</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="0"/>
-        <v>3.3008867568425386</v>
-      </c>
-      <c r="E39">
-        <v>3.3</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="1"/>
-        <v>0.13190211996254816</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="4"/>
-        <v>0.59090909090909094</v>
-      </c>
-      <c r="H39">
-        <f>$K$6*(I39^(2/3))*($L$6^(1/2))</f>
-        <v>0.35859562363369718</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="2"/>
-        <v>0.23239436619718309</v>
-      </c>
-    </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C40">
-        <f t="shared" si="3"/>
-        <v>3.416765340782832</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="0"/>
-        <v>3.400835361766025</v>
-      </c>
-      <c r="E40">
-        <v>3.4</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="1"/>
-        <v>0.12802264584600262</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="4"/>
-        <v>0.57352941176470595</v>
-      </c>
-      <c r="H40">
-        <f>$K$6*(I40^(2/3))*($L$6^(1/2))</f>
-        <v>0.35909164091712381</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="2"/>
-        <v>0.23287671232876711</v>
-      </c>
-    </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C41">
-        <f t="shared" si="3"/>
-        <v>3.5158210073020033</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="0"/>
-        <v>3.5007883087359386</v>
-      </c>
-      <c r="E41">
-        <v>3.5</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="1"/>
-        <v>0.12436485596468826</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="4"/>
-        <v>0.55714285714285716</v>
-      </c>
-      <c r="H41">
-        <f>$K$6*(I41^(2/3))*($L$6^(1/2))</f>
-        <v>0.3595608884894857</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="2"/>
-        <v>0.23333333333333334</v>
-      </c>
-    </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C42">
-        <f t="shared" si="3"/>
-        <v>3.614954270019255</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="0"/>
-        <v>3.6007451220690778</v>
-      </c>
-      <c r="E42">
-        <v>3.6</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="1"/>
-        <v>0.12091027663233581</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="4"/>
-        <v>0.54166666666666674</v>
-      </c>
-      <c r="H42">
-        <f>$K$6*(I42^(2/3))*($L$6^(1/2))</f>
-        <v>0.36000547698496255</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="2"/>
-        <v>0.23376623376623376</v>
-      </c>
-    </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C43">
-        <f t="shared" si="3"/>
-        <v>3.7141568545982135</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="0"/>
-        <v>3.7007053894824873</v>
-      </c>
-      <c r="E43">
-        <v>3.7</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="1"/>
-        <v>0.11764243131794834</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="4"/>
-        <v>0.52702702702702708</v>
-      </c>
-      <c r="H43">
-        <f>$K$6*(I43^(2/3))*($L$6^(1/2))</f>
-        <v>0.36042730079237945</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="2"/>
-        <v>0.23417721518987342</v>
-      </c>
-    </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C44">
-        <f t="shared" si="3"/>
-        <v>3.8134215609037079</v>
-      </c>
-      <c r="E44">
-        <v>3.8</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="1"/>
-        <v>0.11454657786221287</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="4"/>
-        <v>0.51315789473684215</v>
-      </c>
-      <c r="H44">
-        <f>$K$6*(I44^(2/3))*($L$6^(1/2))</f>
-        <v>0.36082806506344728</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="2"/>
         <v>0.23456790123456789</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <f t="shared" si="4"/>
+        <v>6.218130678660054E-2</v>
+      </c>
+      <c r="C47">
+        <f>E47+G47^2/(2*9.81)</f>
+        <v>3.9075397040816942</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>3.9</v>
+      </c>
+      <c r="E47">
+        <v>3.9</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="6"/>
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <f t="shared" si="4"/>
+        <v>5.9864142826321957E-2</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="5"/>
+        <v>4.0071674311926602</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="6"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B49">
+        <f t="shared" si="4"/>
+        <v>5.7687400631820901E-2</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="5"/>
+        <v>4.1068220641928948</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E49">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="6"/>
+        <v>0.36585365853658541</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B50">
+        <f t="shared" si="4"/>
+        <v>5.5639448905913345E-2</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="5"/>
+        <v>4.2065010713765627</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>4.2</v>
+      </c>
+      <c r="E50">
+        <v>4.2</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="6"/>
+        <v>0.35714285714285715</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B51">
+        <f t="shared" si="4"/>
+        <v>5.3709866387680244E-2</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="5"/>
+        <v>4.3062022119568724</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>4.3</v>
+      </c>
+      <c r="E51">
+        <v>4.3</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="6"/>
+        <v>0.34883720930232559</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B52">
+        <f t="shared" si="4"/>
+        <v>5.1889291474684435E-2</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="5"/>
+        <v>4.4059234968534389</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E52">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="6"/>
+        <v>0.34090909090909088</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B53">
+        <f t="shared" si="4"/>
+        <v>5.0169293442858982E-2</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="5"/>
+        <v>4.5056631555102502</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="E53">
+        <v>4.5</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B54">
+        <f t="shared" si="4"/>
+        <v>4.8542261762374014E-2</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="5"/>
+        <v>4.6054196077071152</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E54">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="6"/>
+        <v>0.32608695652173914</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B55">
+        <f t="shared" si="4"/>
+        <v>4.7001310637600428E-2</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="5"/>
+        <v>4.7051914395238832</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>4.7</v>
+      </c>
+      <c r="E55">
+        <v>4.7</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="6"/>
+        <v>0.31914893617021273</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B56">
+        <f t="shared" si="4"/>
+        <v>4.5540196405121677E-2</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="5"/>
+        <v>4.8049773827726812</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>4.8</v>
+      </c>
+      <c r="E56">
+        <v>4.8</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="6"/>
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B57">
+        <f t="shared" si="4"/>
+        <v>4.415324583202497E-2</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="5"/>
+        <v>4.9047762973378832</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E57">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="6"/>
+        <v>0.30612244897959179</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B58">
+        <f t="shared" si="4"/>
+        <v>4.2835293687811936E-2</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="5"/>
+        <v>5.0045871559633026</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <v>5</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="6"/>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -3192,4 +3936,16 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4CCF6D-9AB9-4C86-9F4D-242A85EC3D4B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assignment 8/H-y-Diagramm analysis.xlsx
+++ b/Assignment 8/H-y-Diagramm analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a61639dd89d78c63/Dokumente/GitHub/NMH-GROUP-2/Assignment 8/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NickP\OneDrive\Dokumente\GitHub\NMH-GROUP-2\Assignment 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="130" documentId="8_{62616939-9EF6-4C9E-8392-B6121EE8769C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{FF8F2C31-3D36-4296-914B-502BB07968AB}"/>
+  <xr:revisionPtr revIDLastSave="175" documentId="8_{62616939-9EF6-4C9E-8392-B6121EE8769C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{B9C4E137-F7E4-4291-930F-7ACA13552A20}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{719F1BF9-2129-43BE-84C5-7706604C97C2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
   <si>
     <t>y</t>
   </si>
@@ -73,9 +73,6 @@
     <t>H(normalwasser)</t>
   </si>
   <si>
-    <t>H(inletbc)</t>
-  </si>
-  <si>
     <t>y aus Q</t>
   </si>
   <si>
@@ -85,7 +82,16 @@
     <t>Is,2</t>
   </si>
   <si>
-    <t>öäällö+</t>
+    <t>h</t>
+  </si>
+  <si>
+    <t>hu</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -139,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -147,6 +153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -203,7 +210,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> for const. q</a:t>
+              <a:t> for const. q=1.5 m^2/s</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -261,7 +268,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>H(inletbc)</c:v>
+                  <c:v>H</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -276,26 +283,14 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$C$7:$C$46</c:f>
+              <c:f>Tabelle1!$C$7:$C$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>11.56788990825688</c:v>
                 </c:pt>
@@ -315,105 +310,111 @@
                   <c:v>0.95871559633027514</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.93580968360952377</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.91855249745157996</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.91818268054392382</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>0.91893650562501583</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.93403856955626274</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>0.97918577981651378</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>1.0415788877562577</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>1.1146788990825689</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>1.1947759496550157</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>1.2796381243628949</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>1.3678573367352478</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>1.4585096423890656</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>1.5509683995922527</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>1.6447964449541286</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>1.7396812799593664</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>1.8353947219390645</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>1.9317670080561131</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>2.028669724770642</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>2.1260042855062515</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>2.2236939874137542</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>2.3216784308284626</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>2.4199095310907235</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>2.5183486238532109</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>2.616964334183812</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>2.7157309875284734</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>2.8146274105972662</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>2.9136360165377608</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>3.0127420998980634</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>3.1119332881459489</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>3.2111991112385323</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>3.3105306610727792</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>3.4099203199898414</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>3.5093615427822504</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>3.6088486804847664</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>3.7083768370403631</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>3.807941752014028</c:v>
                 </c:pt>
               </c:numCache>
@@ -421,10 +422,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$E$7:$E$46</c:f>
+              <c:f>Tabelle1!$E$7:$E$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
@@ -444,105 +445,111 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.53469999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.61209999999999998</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>1.2</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>1.3</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>1.4</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>1.6</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>1.7</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>1.8</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>1.9</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>2.1</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>2.2000000000000002</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>2.2999999999999998</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>2.4</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>2.5</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>2.6</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>2.7</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>2.8</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>2.9</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>3.1</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>3.2</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>3.3</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>3.4</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>3.5</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>3.6</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>3.7</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>3.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -552,6 +559,376 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-51EF-4E5D-8560-CE1F3F815295}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$E$6:$E$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.53469999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61209999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$E$6:$E$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.53469999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61209999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F23-4B45-9435-E2831FA9BCC9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -617,13 +994,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$D$6:$D$45</c15:sqref>
+                          <c15:sqref>Tabelle1!$D$6:$D$47</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="40"/>
+                      <c:ptCount val="42"/>
                       <c:pt idx="1">
                         <c:v>1.0656782015249302</c:v>
                       </c:pt>
@@ -640,102 +1017,108 @@
                         <c:v>0.53862712806099722</c:v>
                       </c:pt>
                       <c:pt idx="7">
+                        <c:v>0.56847629895133467</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
                         <c:v>0.6268243944868036</c:v>
                       </c:pt>
-                      <c:pt idx="8">
+                      <c:pt idx="9">
                         <c:v>0.63787434687899913</c:v>
                       </c:pt>
-                      <c:pt idx="9">
+                      <c:pt idx="10">
+                        <c:v>0.65433051654131846</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
                         <c:v>0.71970771839846792</c:v>
                       </c:pt>
-                      <c:pt idx="10">
+                      <c:pt idx="12">
                         <c:v>0.81508872189882708</c:v>
                       </c:pt>
-                      <c:pt idx="11">
+                      <c:pt idx="13">
                         <c:v>0.91192195310524604</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="14">
                         <c:v>1.0096567820152493</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="15">
                         <c:v>1.1079808115828507</c:v>
                       </c:pt>
-                      <c:pt idx="14">
+                      <c:pt idx="16">
                         <c:v>1.2067060986217009</c:v>
                       </c:pt>
-                      <c:pt idx="15">
+                      <c:pt idx="17">
                         <c:v>1.3057140721983724</c:v>
                       </c:pt>
-                      <c:pt idx="16">
+                      <c:pt idx="18">
                         <c:v>1.404926929599617</c:v>
                       </c:pt>
-                      <c:pt idx="17">
+                      <c:pt idx="19">
                         <c:v>1.5042919031178885</c:v>
                       </c:pt>
-                      <c:pt idx="18">
+                      <c:pt idx="20">
                         <c:v>1.6037721804747069</c:v>
                       </c:pt>
-                      <c:pt idx="19">
+                      <c:pt idx="21">
                         <c:v>1.7033414470641</c:v>
                       </c:pt>
-                      <c:pt idx="20">
+                      <c:pt idx="22">
                         <c:v>1.8029804882763116</c:v>
                       </c:pt>
-                      <c:pt idx="21">
+                      <c:pt idx="23">
                         <c:v>1.9026750088684901</c:v>
                       </c:pt>
-                      <c:pt idx="22">
+                      <c:pt idx="24">
                         <c:v>2.0024141955038122</c:v>
                       </c:pt>
-                      <c:pt idx="23">
+                      <c:pt idx="25">
                         <c:v>2.1021897464887189</c:v>
                       </c:pt>
-                      <c:pt idx="24">
+                      <c:pt idx="26">
                         <c:v>2.2019952028957128</c:v>
                       </c:pt>
-                      <c:pt idx="25">
+                      <c:pt idx="27">
                         <c:v>2.301825478641824</c:v>
                       </c:pt>
-                      <c:pt idx="26">
+                      <c:pt idx="28">
                         <c:v>2.401676524655425</c:v>
                       </c:pt>
-                      <c:pt idx="27">
+                      <c:pt idx="29">
                         <c:v>2.5015450851224399</c:v>
                       </c:pt>
-                      <c:pt idx="28">
+                      <c:pt idx="30">
                         <c:v>2.6014285180495933</c:v>
                       </c:pt>
-                      <c:pt idx="29">
+                      <c:pt idx="31">
                         <c:v>2.7013246614561388</c:v>
                       </c:pt>
-                      <c:pt idx="30">
+                      <c:pt idx="32">
                         <c:v>2.8012317323999039</c:v>
                       </c:pt>
-                      <c:pt idx="31">
+                      <c:pt idx="33">
                         <c:v>2.9011482499423602</c:v>
                       </c:pt>
-                      <c:pt idx="32">
+                      <c:pt idx="34">
                         <c:v>3.0010729757794721</c:v>
                       </c:pt>
-                      <c:pt idx="33">
+                      <c:pt idx="35">
                         <c:v>3.1010048680556972</c:v>
                       </c:pt>
-                      <c:pt idx="34">
+                      <c:pt idx="36">
                         <c:v>3.2009430451186769</c:v>
                       </c:pt>
-                      <c:pt idx="35">
+                      <c:pt idx="37">
                         <c:v>3.3008867568425386</c:v>
                       </c:pt>
-                      <c:pt idx="36">
+                      <c:pt idx="38">
                         <c:v>3.400835361766025</c:v>
                       </c:pt>
-                      <c:pt idx="37">
+                      <c:pt idx="39">
                         <c:v>3.5007883087359386</c:v>
                       </c:pt>
-                      <c:pt idx="38">
+                      <c:pt idx="40">
                         <c:v>3.6007451220690778</c:v>
                       </c:pt>
-                      <c:pt idx="39">
+                      <c:pt idx="41">
                         <c:v>3.7007053894824873</c:v>
                       </c:pt>
                     </c:numCache>
@@ -746,13 +1129,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$E$6:$E$45</c15:sqref>
+                          <c15:sqref>Tabelle1!$E$6:$E$47</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="40"/>
+                      <c:ptCount val="42"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
                       <c:pt idx="1">
                         <c:v>0.1</c:v>
                       </c:pt>
@@ -772,102 +1158,108 @@
                         <c:v>0.5</c:v>
                       </c:pt>
                       <c:pt idx="7">
+                        <c:v>0.53469999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
                         <c:v>0.6</c:v>
                       </c:pt>
-                      <c:pt idx="8">
+                      <c:pt idx="9">
                         <c:v>0.61209999999999998</c:v>
                       </c:pt>
-                      <c:pt idx="9">
+                      <c:pt idx="10">
+                        <c:v>0.63</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
                         <c:v>0.7</c:v>
                       </c:pt>
-                      <c:pt idx="10">
+                      <c:pt idx="12">
                         <c:v>0.8</c:v>
                       </c:pt>
-                      <c:pt idx="11">
+                      <c:pt idx="13">
                         <c:v>0.9</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="14">
                         <c:v>1</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="15">
                         <c:v>1.1000000000000001</c:v>
                       </c:pt>
-                      <c:pt idx="14">
+                      <c:pt idx="16">
                         <c:v>1.2</c:v>
                       </c:pt>
-                      <c:pt idx="15">
+                      <c:pt idx="17">
                         <c:v>1.3</c:v>
                       </c:pt>
-                      <c:pt idx="16">
+                      <c:pt idx="18">
                         <c:v>1.4</c:v>
                       </c:pt>
-                      <c:pt idx="17">
+                      <c:pt idx="19">
                         <c:v>1.5</c:v>
                       </c:pt>
-                      <c:pt idx="18">
+                      <c:pt idx="20">
                         <c:v>1.6</c:v>
                       </c:pt>
-                      <c:pt idx="19">
+                      <c:pt idx="21">
                         <c:v>1.7</c:v>
                       </c:pt>
-                      <c:pt idx="20">
+                      <c:pt idx="22">
                         <c:v>1.8</c:v>
                       </c:pt>
-                      <c:pt idx="21">
+                      <c:pt idx="23">
                         <c:v>1.9</c:v>
                       </c:pt>
-                      <c:pt idx="22">
+                      <c:pt idx="24">
                         <c:v>2</c:v>
                       </c:pt>
-                      <c:pt idx="23">
+                      <c:pt idx="25">
                         <c:v>2.1</c:v>
                       </c:pt>
-                      <c:pt idx="24">
+                      <c:pt idx="26">
                         <c:v>2.2000000000000002</c:v>
                       </c:pt>
-                      <c:pt idx="25">
+                      <c:pt idx="27">
                         <c:v>2.2999999999999998</c:v>
                       </c:pt>
-                      <c:pt idx="26">
+                      <c:pt idx="28">
                         <c:v>2.4</c:v>
                       </c:pt>
-                      <c:pt idx="27">
+                      <c:pt idx="29">
                         <c:v>2.5</c:v>
                       </c:pt>
-                      <c:pt idx="28">
+                      <c:pt idx="30">
                         <c:v>2.6</c:v>
                       </c:pt>
-                      <c:pt idx="29">
+                      <c:pt idx="31">
                         <c:v>2.7</c:v>
                       </c:pt>
-                      <c:pt idx="30">
+                      <c:pt idx="32">
                         <c:v>2.8</c:v>
                       </c:pt>
-                      <c:pt idx="31">
+                      <c:pt idx="33">
                         <c:v>2.9</c:v>
                       </c:pt>
-                      <c:pt idx="32">
+                      <c:pt idx="34">
                         <c:v>3</c:v>
                       </c:pt>
-                      <c:pt idx="33">
+                      <c:pt idx="35">
                         <c:v>3.1</c:v>
                       </c:pt>
-                      <c:pt idx="34">
+                      <c:pt idx="36">
                         <c:v>3.2</c:v>
                       </c:pt>
-                      <c:pt idx="35">
+                      <c:pt idx="37">
                         <c:v>3.3</c:v>
                       </c:pt>
-                      <c:pt idx="36">
+                      <c:pt idx="38">
                         <c:v>3.4</c:v>
                       </c:pt>
-                      <c:pt idx="37">
+                      <c:pt idx="39">
                         <c:v>3.5</c:v>
                       </c:pt>
-                      <c:pt idx="38">
+                      <c:pt idx="40">
                         <c:v>3.6</c:v>
                       </c:pt>
-                      <c:pt idx="39">
+                      <c:pt idx="41">
                         <c:v>3.7</c:v>
                       </c:pt>
                     </c:numCache>
@@ -888,9 +1280,24 @@
         <c:axId val="668247856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -986,11 +1393,14 @@
         <c:crossAx val="371559328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
+        <c:minorUnit val="0.25"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="371559328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1103,6 +1513,7 @@
         <c:crossAx val="668247856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1112,37 +1523,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1182,7 +1562,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1747,16 +2127,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>752705</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>45382</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>668310</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>140933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>38717</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>170367</xdr:rowOff>
+      <xdr:colOff>718475</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>80065</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2081,10 +2461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEAA3F2-A588-4186-896E-9B8800DC0915}">
-  <dimension ref="B2:R58"/>
+  <dimension ref="B2:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="59" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2092,7 +2472,7 @@
     <col min="6" max="6" width="19.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.35">
       <c r="F2" t="s">
         <v>9</v>
       </c>
@@ -2101,7 +2481,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
       <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
@@ -2122,13 +2502,27 @@
         <f>L3*1.3*0.5</f>
         <v>0.21763849793820444</v>
       </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="Q4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -2158,15 +2552,22 @@
         <v>2</v>
       </c>
       <c r="M5" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5">
+        <f>R3/R4</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>0</v>
+      </c>
       <c r="H6">
-        <f t="shared" ref="H6:H46" si="0">$K$6*(I6^(2/3))*($L$6^(1/2))</f>
+        <f t="shared" ref="H6:H48" si="0">$K$6*(I6^(2/3))*($L$6^(1/2))</f>
         <v>0</v>
       </c>
       <c r="I6">
@@ -2185,8 +2586,15 @@
       <c r="M6">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6">
+        <f>R5/SQRT(9.81*R4)</f>
+        <v>1.0304570142281206</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B7">
         <f>G7/((E7*9.81)^0.5)</f>
         <v>15.144563320384567</v>
@@ -2196,14 +2604,14 @@
         <v>11.56788990825688</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D58" si="1">E7+F7^2/(2*9.81)</f>
+        <f t="shared" ref="D7:D60" si="1">E7+F7^2/(2*9.81)</f>
         <v>1.0656782015249302</v>
       </c>
       <c r="E7">
         <v>0.1</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F46" si="2">$N$3/(E7*$J$6)</f>
+        <f t="shared" ref="F7:F48" si="2">$N$3/(E7*$J$6)</f>
         <v>4.3527699587640889</v>
       </c>
       <c r="G7">
@@ -2215,17 +2623,17 @@
         <v>0.16331869371062074</v>
       </c>
       <c r="I7">
-        <f t="shared" ref="I7:I46" si="3">(E7*$J$6)/($J$6+2*E7)</f>
+        <f t="shared" ref="I7:I48" si="3">(E7*$J$6)/($J$6+2*E7)</f>
         <v>7.1428571428571438E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B8">
-        <f t="shared" ref="B8:B58" si="4">G8/((E8*9.81)^0.5)</f>
+        <f>G8/((E8*9.81)^0.5)</f>
         <v>5.3544117109764917</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C58" si="5">E8+G8^2/(2*9.81)</f>
+        <f t="shared" ref="C8:C60" si="4">E8+G8^2/(2*9.81)</f>
         <v>3.0669724770642204</v>
       </c>
       <c r="D8">
@@ -2258,13 +2666,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B9">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="B9:B60" si="5">G9/((E9*9.81)^0.5)</f>
         <v>2.9145725699277873</v>
       </c>
       <c r="C9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.57420998980632</v>
       </c>
       <c r="D9">
@@ -2279,7 +2687,7 @@
         <v>1.4509233195880298</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="G9:G58" si="6">$H$2/(E9*$J$6)</f>
+        <f t="shared" ref="G9:G60" si="6">$H$2/(E9*$J$6)</f>
         <v>5</v>
       </c>
       <c r="H9">
@@ -2298,9 +2706,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3030113624666866</v>
       </c>
       <c r="C10" s="3">
@@ -2328,13 +2736,13 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8930704150480708</v>
       </c>
       <c r="C11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.1167431192660551</v>
       </c>
       <c r="D11">
@@ -2368,13 +2776,13 @@
         <v>0.32444512413605975</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3545709229571927</v>
       </c>
       <c r="C12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.95871559633027514</v>
       </c>
       <c r="D12">
@@ -2401,1530 +2809,1602 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P12" s="2">
         <f>(H2/(P11*$J$6))</f>
         <v>4.6232779857433082</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B13">
-        <f t="shared" si="4"/>
-        <v>1.0304570142281206</v>
+        <f t="shared" si="5"/>
+        <v>1.2248741779705683</v>
       </c>
       <c r="C13">
-        <f t="shared" si="5"/>
-        <v>0.91855249745157996</v>
+        <f>E13+G13^2/(2*9.81)</f>
+        <v>0.93580968360952377</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>0.6268243944868036</v>
+        <v>0.56847629895133467</v>
       </c>
       <c r="E13">
-        <v>0.6</v>
+        <v>0.53469999999999995</v>
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
-        <v>0.72546165979401489</v>
+        <v>0.81405834276493161</v>
       </c>
       <c r="G13">
         <f t="shared" si="6"/>
-        <v>2.5</v>
+        <v>2.8053113895642419</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>0.29847146020589793</v>
+        <v>0.29153158568664045</v>
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
+        <v>0.17035172677456353</v>
+      </c>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <f t="shared" si="5"/>
+        <v>1.0304570142281206</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="4"/>
+        <v>0.91855249745157996</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0.6268243944868036</v>
+      </c>
+      <c r="E14">
+        <v>0.6</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>0.72546165979401489</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="6"/>
+        <v>2.5</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0.29847146020589793</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
         <v>0.17647058823529413</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O14" t="s">
         <v>0</v>
       </c>
-      <c r="P13">
+      <c r="P14">
         <f>P12</f>
         <v>4.6232779857433082</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B14">
-        <f t="shared" si="4"/>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <f t="shared" si="5"/>
         <v>1.0000533894323629</v>
       </c>
-      <c r="C14">
-        <f t="shared" si="5"/>
+      <c r="C15">
+        <f t="shared" si="4"/>
         <v>0.91818268054392382</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <f t="shared" si="1"/>
         <v>0.63787434687899913</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>0.61209999999999998</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <f t="shared" si="2"/>
         <v>0.71112072516975811</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <f t="shared" si="6"/>
         <v>2.4505799705930404</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <f t="shared" si="0"/>
         <v>0.29963399410231284</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <f t="shared" si="3"/>
         <v>0.17750260990604338</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B15">
-        <f t="shared" si="4"/>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <f t="shared" si="5"/>
+        <v>0.9577362622433816</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="4"/>
+        <v>0.91893650562501583</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>0.65433051654131846</v>
+      </c>
+      <c r="E16">
+        <v>0.63</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>0.6909158664704903</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="6"/>
+        <v>2.3809523809523809</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>0.3012912450158548</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>0.17897727272727273</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <f t="shared" si="5"/>
         <v>0.81772955633486066</v>
       </c>
-      <c r="C15">
-        <f t="shared" si="5"/>
+      <c r="C17">
+        <f t="shared" si="4"/>
         <v>0.93403856955626274</v>
       </c>
-      <c r="D15">
+      <c r="D17">
         <f t="shared" si="1"/>
         <v>0.71970771839846792</v>
       </c>
-      <c r="E15">
+      <c r="E17">
         <v>0.7</v>
       </c>
-      <c r="F15">
+      <c r="F17">
         <f t="shared" si="2"/>
         <v>0.62182427982344135</v>
       </c>
-      <c r="G15">
+      <c r="G17">
         <f t="shared" si="6"/>
         <v>2.1428571428571428</v>
       </c>
-      <c r="H15">
+      <c r="H17">
         <f t="shared" si="0"/>
         <v>0.30713611296568444</v>
       </c>
-      <c r="I15">
+      <c r="I17">
         <f t="shared" si="3"/>
         <v>0.18421052631578946</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O17" t="s">
         <v>3</v>
       </c>
-      <c r="P15" s="1">
-        <f>(P13*$J$6)/($J$6+2*P13)</f>
+      <c r="P17" s="1">
+        <f>(P14*$J$6)/($J$6+2*P14)</f>
         <v>0.23717495694215623</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B16">
-        <f t="shared" si="4"/>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <f t="shared" si="5"/>
         <v>0.66930146387206146</v>
       </c>
-      <c r="C16">
-        <f t="shared" si="5"/>
+      <c r="C18">
+        <f t="shared" si="4"/>
         <v>0.97918577981651378</v>
       </c>
-      <c r="D16">
+      <c r="D18">
         <f t="shared" si="1"/>
         <v>0.81508872189882708</v>
       </c>
-      <c r="E16">
+      <c r="E18">
         <v>0.8</v>
       </c>
-      <c r="F16">
+      <c r="F18">
         <f t="shared" si="2"/>
         <v>0.54409624484551111</v>
       </c>
-      <c r="G16">
+      <c r="G18">
         <f t="shared" si="6"/>
         <v>1.875</v>
       </c>
-      <c r="H16">
+      <c r="H18">
         <f t="shared" si="0"/>
         <v>0.31406175443641327</v>
       </c>
-      <c r="I16">
+      <c r="I18">
         <f t="shared" si="3"/>
         <v>0.19047619047619047</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O18" t="s">
         <v>8</v>
       </c>
-      <c r="P16">
-        <f>$K$6*(P15^(2/3))*($L$6^(1/2))</f>
+      <c r="P18">
+        <f>$K$6*(P17^(2/3))*($L$6^(1/2))</f>
         <v>0.36349670210587298</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B17">
-        <f t="shared" si="4"/>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <f t="shared" si="5"/>
         <v>0.56090975260683573</v>
       </c>
-      <c r="C17">
-        <f t="shared" si="5"/>
+      <c r="C19">
+        <f t="shared" si="4"/>
         <v>1.0415788877562577</v>
       </c>
-      <c r="D17">
+      <c r="D19">
         <f t="shared" si="1"/>
         <v>0.91192195310524604</v>
       </c>
-      <c r="E17">
+      <c r="E19">
         <v>0.9</v>
       </c>
-      <c r="F17">
+      <c r="F19">
         <f t="shared" si="2"/>
         <v>0.48364110652934322</v>
       </c>
-      <c r="G17">
+      <c r="G19">
         <f t="shared" si="6"/>
         <v>1.6666666666666665</v>
       </c>
-      <c r="H17">
+      <c r="H19">
         <f t="shared" si="0"/>
         <v>0.31972581755873442</v>
       </c>
-      <c r="I17">
+      <c r="I19">
         <f t="shared" si="3"/>
         <v>0.19565217391304349</v>
       </c>
-      <c r="O17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P17" s="2">
-        <f>($H$2/(P16*0.5))</f>
+      <c r="O19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="2">
+        <f>($H$2/(P18*0.5))</f>
         <v>4.1265848941955632</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B18">
-        <f t="shared" si="4"/>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <f t="shared" si="5"/>
         <v>0.47891314261057566</v>
       </c>
-      <c r="C18">
-        <f t="shared" si="5"/>
+      <c r="C20">
+        <f t="shared" si="4"/>
         <v>1.1146788990825689</v>
       </c>
-      <c r="D18">
+      <c r="D20">
         <f t="shared" si="1"/>
         <v>1.0096567820152493</v>
       </c>
-      <c r="E18">
+      <c r="E20">
         <v>1</v>
       </c>
-      <c r="F18">
+      <c r="F20">
         <f t="shared" si="2"/>
         <v>0.43527699587640889</v>
       </c>
-      <c r="G18">
+      <c r="G20">
         <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
-      <c r="H18">
+      <c r="H20">
         <f t="shared" si="0"/>
         <v>0.32444512413605975</v>
       </c>
-      <c r="I18">
+      <c r="I20">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O20" t="s">
         <v>0</v>
       </c>
-      <c r="P18">
-        <f>P17</f>
+      <c r="P20">
+        <f>P19</f>
         <v>4.1265848941955632</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B19">
-        <f t="shared" si="4"/>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <f t="shared" si="5"/>
         <v>0.41511433179747548</v>
       </c>
-      <c r="C19">
-        <f t="shared" si="5"/>
+      <c r="C21">
+        <f t="shared" si="4"/>
         <v>1.1947759496550157</v>
       </c>
-      <c r="D19">
+      <c r="D21">
         <f t="shared" si="1"/>
         <v>1.1079808115828507</v>
       </c>
-      <c r="E19">
+      <c r="E21">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F19">
+      <c r="F21">
         <f t="shared" si="2"/>
         <v>0.39570635988764441</v>
       </c>
-      <c r="G19">
+      <c r="G21">
         <f t="shared" si="6"/>
         <v>1.3636363636363635</v>
       </c>
-      <c r="H19">
+      <c r="H21">
         <f t="shared" si="0"/>
         <v>0.32843835752012673</v>
       </c>
-      <c r="I19">
+      <c r="I21">
         <f t="shared" si="3"/>
         <v>0.20370370370370372</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O21" t="s">
         <v>3</v>
       </c>
-      <c r="P19" s="1">
-        <f>(P18*$J$6)/($J$6+2*P18)</f>
+      <c r="P21" s="1">
+        <f>(P20*$J$6)/($J$6+2*P20)</f>
         <v>0.23571945900492175</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B20">
-        <f t="shared" si="4"/>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <f t="shared" si="5"/>
         <v>0.36432157124097342</v>
       </c>
-      <c r="C20" s="3">
-        <f t="shared" si="5"/>
+      <c r="C22" s="3">
+        <f t="shared" si="4"/>
         <v>1.2796381243628949</v>
       </c>
-      <c r="D20">
+      <c r="D22">
         <f t="shared" si="1"/>
         <v>1.2067060986217009</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E22" s="3">
         <v>1.2</v>
       </c>
-      <c r="F20">
+      <c r="F22">
         <f t="shared" si="2"/>
         <v>0.36273082989700745</v>
       </c>
-      <c r="G20">
+      <c r="G22">
         <f t="shared" si="6"/>
         <v>1.25</v>
       </c>
-      <c r="H20">
+      <c r="H22">
         <f t="shared" si="0"/>
         <v>0.33186141176187101</v>
       </c>
-      <c r="I20">
+      <c r="I22">
         <f t="shared" si="3"/>
         <v>0.20689655172413793</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O22" t="s">
         <v>8</v>
       </c>
-      <c r="P20">
-        <f>$K$6*(P19^(2/3))*($L$6^(1/2))</f>
+      <c r="P22">
+        <f>$K$6*(P21^(2/3))*($L$6^(1/2))</f>
         <v>0.36200803646534219</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B21">
-        <f t="shared" si="4"/>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <f t="shared" si="5"/>
         <v>0.32310354790625867</v>
       </c>
-      <c r="C21">
-        <f t="shared" si="5"/>
+      <c r="C23">
+        <f t="shared" si="4"/>
         <v>1.3678573367352478</v>
       </c>
-      <c r="D21">
+      <c r="D23">
         <f t="shared" si="1"/>
         <v>1.3057140721983724</v>
       </c>
-      <c r="E21">
+      <c r="E23">
         <v>1.3</v>
       </c>
-      <c r="F21">
+      <c r="F23">
         <f t="shared" si="2"/>
         <v>0.33482845836646835</v>
       </c>
-      <c r="G21">
+      <c r="G23">
         <f t="shared" si="6"/>
         <v>1.1538461538461537</v>
       </c>
-      <c r="H21">
+      <c r="H23">
         <f t="shared" si="0"/>
         <v>0.33482845836646835</v>
       </c>
-      <c r="I21">
+      <c r="I23">
         <f t="shared" si="3"/>
         <v>0.20967741935483872</v>
       </c>
-      <c r="O21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P21" s="2">
-        <f>($H$2/(P20*0.5))</f>
+      <c r="O23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23" s="2">
+        <f>($H$2/(P22*0.5))</f>
         <v>4.1435544211837039</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B22">
-        <f t="shared" si="4"/>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <f t="shared" si="5"/>
         <v>0.28911105723052344</v>
       </c>
-      <c r="C22">
-        <f t="shared" si="5"/>
+      <c r="C24">
+        <f t="shared" si="4"/>
         <v>1.4585096423890656</v>
       </c>
-      <c r="D22">
+      <c r="D24">
         <f t="shared" si="1"/>
         <v>1.404926929599617</v>
       </c>
-      <c r="E22">
+      <c r="E24">
         <v>1.4</v>
       </c>
-      <c r="F22">
+      <c r="F24">
         <f t="shared" si="2"/>
         <v>0.31091213991172068</v>
       </c>
-      <c r="G22">
+      <c r="G24">
         <f t="shared" si="6"/>
         <v>1.0714285714285714</v>
       </c>
-      <c r="H22">
+      <c r="H24">
         <f t="shared" si="0"/>
         <v>0.33742505043956383</v>
       </c>
-      <c r="I22">
+      <c r="I24">
         <f t="shared" si="3"/>
         <v>0.21212121212121213</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O24" t="s">
         <v>0</v>
       </c>
-      <c r="P22">
-        <f>P21</f>
+      <c r="P24">
+        <f>P23</f>
         <v>4.1435544211837039</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B23">
-        <f t="shared" si="4"/>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <f t="shared" si="5"/>
         <v>0.26068729566859167</v>
       </c>
-      <c r="C23">
-        <f t="shared" si="5"/>
+      <c r="C25">
+        <f t="shared" si="4"/>
         <v>1.5509683995922527</v>
       </c>
-      <c r="D23">
+      <c r="D25">
         <f t="shared" si="1"/>
         <v>1.5042919031178885</v>
       </c>
-      <c r="E23">
+      <c r="E25">
         <v>1.5</v>
       </c>
-      <c r="F23">
+      <c r="F25">
         <f t="shared" si="2"/>
         <v>0.29018466391760595</v>
       </c>
-      <c r="G23">
+      <c r="G25">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H23">
+      <c r="H25">
         <f t="shared" si="0"/>
         <v>0.33971657278943085</v>
       </c>
-      <c r="I23">
+      <c r="I25">
         <f t="shared" si="3"/>
         <v>0.21428571428571427</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O25" t="s">
         <v>3</v>
       </c>
-      <c r="P23" s="1">
-        <f>(P22*$J$6)/($J$6+2*P22)</f>
+      <c r="P25" s="1">
+        <f>(P24*$J$6)/($J$6+2*P24)</f>
         <v>0.2357746157191877</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B24">
-        <f t="shared" si="4"/>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <f t="shared" si="5"/>
         <v>0.23663380188100885</v>
       </c>
-      <c r="C24">
-        <f t="shared" si="5"/>
+      <c r="C26">
+        <f t="shared" si="4"/>
         <v>1.6447964449541286</v>
       </c>
-      <c r="D24">
+      <c r="D26">
         <f t="shared" si="1"/>
         <v>1.6037721804747069</v>
       </c>
-      <c r="E24">
+      <c r="E26">
         <v>1.6</v>
       </c>
-      <c r="F24">
+      <c r="F26">
         <f t="shared" si="2"/>
         <v>0.27204812242275556</v>
       </c>
-      <c r="G24">
+      <c r="G26">
         <f t="shared" si="6"/>
         <v>0.9375</v>
       </c>
-      <c r="H24">
+      <c r="H26">
         <f t="shared" si="0"/>
         <v>0.3417538611951863</v>
       </c>
-      <c r="I24">
+      <c r="I26">
         <f t="shared" si="3"/>
         <v>0.21621621621621623</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O26" t="s">
         <v>8</v>
       </c>
-      <c r="P24">
-        <f>$K$6*(P23^(2/3))*($L$6^(1/2))</f>
+      <c r="P26">
+        <f>$K$6*(P25^(2/3))*($L$6^(1/2))</f>
         <v>0.36206450583871769</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B25">
-        <f t="shared" si="4"/>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <f t="shared" si="5"/>
         <v>0.21606447828304665</v>
       </c>
-      <c r="C25">
-        <f t="shared" si="5"/>
+      <c r="C27">
+        <f t="shared" si="4"/>
         <v>1.7396812799593664</v>
       </c>
-      <c r="D25">
+      <c r="D27">
         <f t="shared" si="1"/>
         <v>1.7033414470641</v>
       </c>
-      <c r="E25">
+      <c r="E27">
         <v>1.7</v>
       </c>
-      <c r="F25">
+      <c r="F27">
         <f t="shared" si="2"/>
         <v>0.25604529169200524</v>
       </c>
-      <c r="G25">
+      <c r="G27">
         <f t="shared" si="6"/>
         <v>0.88235294117647056</v>
       </c>
-      <c r="H25">
+      <c r="H27">
         <f t="shared" si="0"/>
         <v>0.3435770400250131</v>
       </c>
-      <c r="I25">
+      <c r="I27">
         <f t="shared" si="3"/>
         <v>0.21794871794871795</v>
       </c>
-      <c r="O25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P25" s="2">
-        <f>($H$2/(P24*0.5))</f>
+      <c r="O27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="2">
+        <f>($H$2/(P26*0.5))</f>
         <v>4.1429081719161331</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B26">
-        <f t="shared" si="4"/>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <f t="shared" si="5"/>
         <v>0.19831154485098118</v>
       </c>
-      <c r="C26">
-        <f t="shared" si="5"/>
+      <c r="C28">
+        <f t="shared" si="4"/>
         <v>1.8353947219390645</v>
       </c>
-      <c r="D26">
+      <c r="D28">
         <f t="shared" si="1"/>
         <v>1.8029804882763116</v>
       </c>
-      <c r="E26">
+      <c r="E28">
         <v>1.8</v>
       </c>
-      <c r="F26">
+      <c r="F28">
         <f t="shared" si="2"/>
         <v>0.24182055326467161</v>
       </c>
-      <c r="G26">
+      <c r="G28">
         <f t="shared" si="6"/>
         <v>0.83333333333333326</v>
       </c>
-      <c r="H26">
+      <c r="H28">
         <f t="shared" si="0"/>
         <v>0.34521820484316085</v>
       </c>
-      <c r="I26">
+      <c r="I28">
         <f t="shared" si="3"/>
         <v>0.21951219512195125</v>
       </c>
-      <c r="O26" t="s">
+      <c r="O28" t="s">
         <v>0</v>
       </c>
-      <c r="P26">
-        <f>P25</f>
+      <c r="P28">
+        <f>P27</f>
         <v>4.1429081719161331</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B27">
-        <f t="shared" si="4"/>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <f t="shared" si="5"/>
         <v>0.18286321622606405</v>
       </c>
-      <c r="C27">
-        <f t="shared" si="5"/>
+      <c r="C29">
+        <f t="shared" si="4"/>
         <v>1.9317670080561131</v>
       </c>
-      <c r="D27">
+      <c r="D29">
         <f t="shared" si="1"/>
         <v>1.9026750088684901</v>
       </c>
-      <c r="E27">
+      <c r="E29">
         <v>1.9</v>
       </c>
-      <c r="F27">
+      <c r="F29">
         <f t="shared" si="2"/>
         <v>0.22909315572442573</v>
       </c>
-      <c r="G27">
+      <c r="G29">
         <f t="shared" si="6"/>
         <v>0.78947368421052633</v>
       </c>
-      <c r="H27">
+      <c r="H29">
         <f t="shared" si="0"/>
         <v>0.34670333656585833</v>
       </c>
-      <c r="I27">
+      <c r="I29">
         <f t="shared" si="3"/>
         <v>0.22093023255813954</v>
       </c>
-      <c r="O27" t="s">
+      <c r="O29" t="s">
         <v>3</v>
       </c>
-      <c r="P27" s="1">
-        <f>(P26*$J$6)/($J$6+2*P26)</f>
+      <c r="P29" s="1">
+        <f>(P28*$J$6)/($J$6+2*P28)</f>
         <v>0.23577252299523069</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B28">
-        <f t="shared" si="4"/>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <f t="shared" si="5"/>
         <v>0.16932136536964909</v>
       </c>
-      <c r="C28">
-        <f t="shared" si="5"/>
+      <c r="C30">
+        <f t="shared" si="4"/>
         <v>2.028669724770642</v>
       </c>
-      <c r="D28">
+      <c r="D30">
         <f t="shared" si="1"/>
         <v>2.0024141955038122</v>
       </c>
-      <c r="E28">
+      <c r="E30">
         <v>2</v>
       </c>
-      <c r="F28">
+      <c r="F30">
         <f t="shared" si="2"/>
         <v>0.21763849793820444</v>
       </c>
-      <c r="G28">
+      <c r="G30">
         <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
-      <c r="H28">
+      <c r="H30">
         <f t="shared" si="0"/>
         <v>0.34805369248935708</v>
       </c>
-      <c r="I28">
+      <c r="I30">
         <f t="shared" si="3"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="O28" t="s">
+      <c r="O30" t="s">
         <v>8</v>
       </c>
-      <c r="P28">
-        <f>$K$6*(P27^(2/3))*($L$6^(1/2))</f>
+      <c r="P30">
+        <f>$K$6*(P29^(2/3))*($L$6^(1/2))</f>
         <v>0.36206236339098519</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B29">
-        <f t="shared" si="4"/>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <f t="shared" si="5"/>
         <v>0.15737212649141502</v>
       </c>
-      <c r="C29">
-        <f t="shared" si="5"/>
+      <c r="C31">
+        <f t="shared" si="4"/>
         <v>2.1260042855062515</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <f t="shared" si="1"/>
         <v>2.1021897464887189</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>2.1</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <f t="shared" si="2"/>
         <v>0.20727475994114708</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <f t="shared" si="6"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <f t="shared" si="0"/>
         <v>0.34928683384200976</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <f t="shared" si="3"/>
         <v>0.22340425531914893</v>
       </c>
-      <c r="O29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P29" s="2">
-        <f>($H$2/(P28*0.5))</f>
+      <c r="O31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="2">
+        <f>($H$2/(P30*0.5))</f>
         <v>4.142932686930993</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B30">
-        <f t="shared" si="4"/>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <f t="shared" si="5"/>
         <v>0.14676507949085871</v>
       </c>
-      <c r="C30">
-        <f t="shared" si="5"/>
+      <c r="C32">
+        <f t="shared" si="4"/>
         <v>2.2236939874137542</v>
       </c>
-      <c r="D30">
+      <c r="D32">
         <f t="shared" si="1"/>
         <v>2.2019952028957128</v>
       </c>
-      <c r="E30">
+      <c r="E32">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F30">
+      <c r="F32">
         <f t="shared" si="2"/>
         <v>0.1978531799438222</v>
       </c>
-      <c r="G30">
+      <c r="G32">
         <f t="shared" si="6"/>
         <v>0.68181818181818177</v>
       </c>
-      <c r="H30">
+      <c r="H32">
         <f t="shared" si="0"/>
         <v>0.35041739611555239</v>
       </c>
-      <c r="I30">
+      <c r="I32">
         <f t="shared" si="3"/>
         <v>0.22448979591836735</v>
       </c>
-      <c r="O30" t="s">
+      <c r="O32" t="s">
         <v>0</v>
       </c>
-      <c r="P30">
-        <f>P29</f>
+      <c r="P32">
+        <f>P31</f>
         <v>4.142932686930993</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B31">
-        <f t="shared" si="4"/>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <f t="shared" si="5"/>
         <v>0.13729824986522846</v>
       </c>
-      <c r="C31">
-        <f t="shared" si="5"/>
+      <c r="C33">
+        <f t="shared" si="4"/>
         <v>2.3216784308284626</v>
       </c>
-      <c r="D31">
+      <c r="D33">
         <f t="shared" si="1"/>
         <v>2.301825478641824</v>
       </c>
-      <c r="E31">
+      <c r="E33">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F31">
+      <c r="F33">
         <f t="shared" si="2"/>
         <v>0.1892508677723517</v>
       </c>
-      <c r="G31">
+      <c r="G33">
         <f t="shared" si="6"/>
         <v>0.65217391304347827</v>
       </c>
-      <c r="H31">
+      <c r="H33">
         <f t="shared" si="0"/>
         <v>0.35145767433236169</v>
       </c>
-      <c r="I31">
+      <c r="I33">
         <f t="shared" si="3"/>
         <v>0.22549019607843138</v>
       </c>
-      <c r="O31" t="s">
+      <c r="O33" t="s">
         <v>3</v>
       </c>
-      <c r="P31" s="1">
-        <f>(P30*$J$6)/($J$6+2*P30)</f>
+      <c r="P33" s="1">
+        <f>(P32*$J$6)/($J$6+2*P32)</f>
         <v>0.23577260239248873</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B32">
-        <f t="shared" si="4"/>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <f t="shared" si="5"/>
         <v>0.12880712677851508</v>
       </c>
-      <c r="C32">
-        <f t="shared" si="5"/>
+      <c r="C34">
+        <f t="shared" si="4"/>
         <v>2.4199095310907235</v>
       </c>
-      <c r="D32">
+      <c r="D34">
         <f t="shared" si="1"/>
         <v>2.401676524655425</v>
       </c>
-      <c r="E32">
+      <c r="E34">
         <v>2.4</v>
       </c>
-      <c r="F32">
+      <c r="F34">
         <f t="shared" si="2"/>
         <v>0.18136541494850372</v>
       </c>
-      <c r="G32">
+      <c r="G34">
         <f t="shared" si="6"/>
         <v>0.625</v>
       </c>
-      <c r="H32">
+      <c r="H34">
         <f t="shared" si="0"/>
         <v>0.35241807315005408</v>
       </c>
-      <c r="I32">
+      <c r="I34">
         <f t="shared" si="3"/>
         <v>0.22641509433962265</v>
       </c>
-      <c r="O32" t="s">
+      <c r="O34" t="s">
         <v>8</v>
       </c>
-      <c r="P32">
-        <f>$K$6*(P31^(2/3))*($L$6^(1/2))</f>
+      <c r="P34">
+        <f>$K$6*(P33^(2/3))*($L$6^(1/2))</f>
         <v>0.36206244467486254</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B33">
-        <f t="shared" si="4"/>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <f t="shared" si="5"/>
         <v>0.12115650656307653</v>
       </c>
-      <c r="C33">
-        <f t="shared" si="5"/>
+      <c r="C35">
+        <f t="shared" si="4"/>
         <v>2.5183486238532109</v>
       </c>
-      <c r="D33">
+      <c r="D35">
         <f t="shared" si="1"/>
         <v>2.5015450851224399</v>
       </c>
-      <c r="E33">
+      <c r="E35">
         <v>2.5</v>
       </c>
-      <c r="F33">
+      <c r="F35">
         <f t="shared" si="2"/>
         <v>0.17411079835056356</v>
       </c>
-      <c r="G33">
+      <c r="G35">
         <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
-      <c r="H33">
+      <c r="H35">
         <f t="shared" si="0"/>
         <v>0.35330745688925369</v>
       </c>
-      <c r="I33">
+      <c r="I35">
         <f t="shared" si="3"/>
         <v>0.22727272727272727</v>
       </c>
-      <c r="O33" s="2" t="s">
+      <c r="O35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35" s="2">
+        <f>($H$2/(P34*0.5))</f>
+        <v>4.1429317568327813</v>
+      </c>
+      <c r="Q35" t="s">
         <v>14</v>
       </c>
-      <c r="P33" s="2">
-        <f>($H$2/(P32*0.5))</f>
-        <v>4.1429317568327813</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>15</v>
-      </c>
-      <c r="R33">
-        <f>P32/(9.81*P33)^0.5</f>
+      <c r="R35">
+        <f>P34/(9.81*P35)^0.5</f>
         <v>5.6793036066255242E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B34">
-        <f t="shared" si="4"/>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <f t="shared" si="5"/>
         <v>0.11423435487497402</v>
       </c>
-      <c r="C34">
-        <f t="shared" si="5"/>
+      <c r="C36">
+        <f t="shared" si="4"/>
         <v>2.616964334183812</v>
       </c>
-      <c r="D34">
+      <c r="D36">
         <f t="shared" si="1"/>
         <v>2.6014285180495933</v>
       </c>
-      <c r="E34">
+      <c r="E36">
         <v>2.6</v>
       </c>
-      <c r="F34">
+      <c r="F36">
         <f t="shared" si="2"/>
         <v>0.16741422918323418</v>
       </c>
-      <c r="G34">
+      <c r="G36">
         <f t="shared" si="6"/>
         <v>0.57692307692307687</v>
       </c>
-      <c r="H34">
+      <c r="H36">
         <f t="shared" si="0"/>
         <v>0.35413342452875363</v>
       </c>
-      <c r="I34">
+      <c r="I36">
         <f t="shared" si="3"/>
         <v>0.22807017543859648</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B35">
-        <f t="shared" si="4"/>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <f t="shared" si="5"/>
         <v>0.10794713221954766</v>
       </c>
-      <c r="C35">
-        <f t="shared" si="5"/>
+      <c r="C37">
+        <f t="shared" si="4"/>
         <v>2.7157309875284734</v>
       </c>
-      <c r="D35">
+      <c r="D37">
         <f t="shared" si="1"/>
         <v>2.7013246614561388</v>
       </c>
-      <c r="E35">
+      <c r="E37">
         <v>2.7</v>
       </c>
-      <c r="F35">
+      <c r="F37">
         <f t="shared" si="2"/>
         <v>0.16121370217644773</v>
       </c>
-      <c r="G35">
+      <c r="G37">
         <f t="shared" si="6"/>
         <v>0.55555555555555547</v>
       </c>
-      <c r="H35">
+      <c r="H37">
         <f t="shared" si="0"/>
         <v>0.35490252779367448</v>
       </c>
-      <c r="I35">
+      <c r="I37">
         <f t="shared" si="3"/>
         <v>0.2288135593220339</v>
       </c>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B36">
-        <f t="shared" si="4"/>
+      <c r="Q37">
+        <f>0.5+0.918</f>
+        <v>1.4180000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <f t="shared" si="5"/>
         <v>0.10221619454185758</v>
       </c>
-      <c r="C36">
-        <f t="shared" si="5"/>
+      <c r="C38">
+        <f t="shared" si="4"/>
         <v>2.8146274105972662</v>
       </c>
-      <c r="D36">
+      <c r="D38">
         <f t="shared" si="1"/>
         <v>2.8012317323999039</v>
       </c>
-      <c r="E36">
+      <c r="E38">
         <v>2.8</v>
       </c>
-      <c r="F36">
+      <c r="F38">
         <f t="shared" si="2"/>
         <v>0.15545606995586034</v>
       </c>
-      <c r="G36">
+      <c r="G38">
         <f t="shared" si="6"/>
         <v>0.5357142857142857</v>
       </c>
-      <c r="H36">
+      <c r="H38">
         <f t="shared" si="0"/>
         <v>0.35562044562297868</v>
       </c>
-      <c r="I36">
+      <c r="I38">
         <f t="shared" si="3"/>
         <v>0.22950819672131148</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B37">
-        <f t="shared" si="4"/>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <f t="shared" si="5"/>
         <v>9.6974993355951306E-2</v>
       </c>
-      <c r="C37">
-        <f t="shared" si="5"/>
+      <c r="C39">
+        <f t="shared" si="4"/>
         <v>2.9136360165377608</v>
       </c>
-      <c r="D37">
+      <c r="D39">
         <f t="shared" si="1"/>
         <v>2.9011482499423602</v>
       </c>
-      <c r="E37">
+      <c r="E39">
         <v>2.9</v>
       </c>
-      <c r="F37">
+      <c r="F39">
         <f t="shared" si="2"/>
         <v>0.15009551581945135</v>
       </c>
-      <c r="G37">
+      <c r="G39">
         <f t="shared" si="6"/>
         <v>0.51724137931034486</v>
       </c>
-      <c r="H37">
+      <c r="H39">
         <f t="shared" si="0"/>
         <v>0.3562921248705902</v>
       </c>
-      <c r="I37">
+      <c r="I39">
         <f t="shared" si="3"/>
         <v>0.23015873015873015</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B38">
-        <f t="shared" si="4"/>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <f t="shared" si="5"/>
         <v>9.2166877268221828E-2</v>
       </c>
-      <c r="C38">
-        <f t="shared" si="5"/>
+      <c r="C40">
+        <f t="shared" si="4"/>
         <v>3.0127420998980634</v>
       </c>
-      <c r="D38">
+      <c r="D40">
         <f t="shared" si="1"/>
         <v>3.0010729757794721</v>
       </c>
-      <c r="E38">
+      <c r="E40">
         <v>3</v>
       </c>
-      <c r="F38">
+      <c r="F40">
         <f t="shared" si="2"/>
         <v>0.14509233195880297</v>
       </c>
-      <c r="G38">
+      <c r="G40">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="H38">
+      <c r="H40">
         <f t="shared" si="0"/>
         <v>0.35692189462882679</v>
       </c>
-      <c r="I38">
+      <c r="I40">
         <f t="shared" si="3"/>
         <v>0.23076923076923078</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B39">
-        <f t="shared" si="4"/>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <f t="shared" si="5"/>
         <v>8.7743350620041502E-2</v>
       </c>
-      <c r="C39">
-        <f t="shared" si="5"/>
+      <c r="C41">
+        <f t="shared" si="4"/>
         <v>3.1119332881459489</v>
       </c>
-      <c r="D39">
+      <c r="D41">
         <f t="shared" si="1"/>
         <v>3.1010048680556972</v>
       </c>
-      <c r="E39">
+      <c r="E41">
         <v>3.1</v>
       </c>
-      <c r="F39">
+      <c r="F41">
         <f t="shared" si="2"/>
         <v>0.14041193415368028</v>
       </c>
-      <c r="G39">
+      <c r="G41">
         <f t="shared" si="6"/>
         <v>0.48387096774193544</v>
       </c>
-      <c r="H39">
+      <c r="H41">
         <f t="shared" si="0"/>
         <v>0.35751355977049359</v>
       </c>
-      <c r="I39">
+      <c r="I41">
         <f t="shared" si="3"/>
         <v>0.23134328358208955</v>
       </c>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B40">
-        <f t="shared" si="4"/>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <f t="shared" si="5"/>
         <v>8.3662682984007683E-2</v>
       </c>
-      <c r="C40">
-        <f t="shared" si="5"/>
+      <c r="C42">
+        <f t="shared" si="4"/>
         <v>3.2111991112385323</v>
       </c>
-      <c r="D40">
+      <c r="D42">
         <f t="shared" si="1"/>
         <v>3.2009430451186769</v>
       </c>
-      <c r="E40">
+      <c r="E42">
         <v>3.2</v>
       </c>
-      <c r="F40">
+      <c r="F42">
         <f t="shared" si="2"/>
         <v>0.13602406121137778</v>
       </c>
-      <c r="G40">
+      <c r="G42">
         <f t="shared" si="6"/>
         <v>0.46875</v>
       </c>
-      <c r="H40">
+      <c r="H42">
         <f t="shared" si="0"/>
         <v>0.35807047798853092</v>
       </c>
-      <c r="I40">
+      <c r="I42">
         <f t="shared" si="3"/>
         <v>0.2318840579710145</v>
       </c>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B41">
-        <f t="shared" si="4"/>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <f t="shared" si="5"/>
         <v>7.98887904025814E-2</v>
       </c>
-      <c r="C41">
-        <f t="shared" si="5"/>
+      <c r="C43">
+        <f t="shared" si="4"/>
         <v>3.3105306610727792</v>
       </c>
-      <c r="D41">
+      <c r="D43">
         <f t="shared" si="1"/>
         <v>3.3008867568425386</v>
       </c>
-      <c r="E41">
+      <c r="E43">
         <v>3.3</v>
       </c>
-      <c r="F41">
+      <c r="F43">
         <f t="shared" si="2"/>
         <v>0.13190211996254816</v>
       </c>
-      <c r="G41">
+      <c r="G43">
         <f t="shared" si="6"/>
         <v>0.45454545454545459</v>
       </c>
-      <c r="H41">
+      <c r="H43">
         <f t="shared" si="0"/>
         <v>0.35859562363369718</v>
       </c>
-      <c r="I41">
+      <c r="I43">
         <f t="shared" si="3"/>
         <v>0.23239436619718309</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B42">
-        <f t="shared" si="4"/>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <f t="shared" si="5"/>
         <v>7.639032888373791E-2</v>
       </c>
-      <c r="C42">
-        <f t="shared" si="5"/>
+      <c r="C44">
+        <f t="shared" si="4"/>
         <v>3.4099203199898414</v>
       </c>
-      <c r="D42">
+      <c r="D44">
         <f t="shared" si="1"/>
         <v>3.400835361766025</v>
       </c>
-      <c r="E42">
+      <c r="E44">
         <v>3.4</v>
       </c>
-      <c r="F42">
+      <c r="F44">
         <f t="shared" si="2"/>
         <v>0.12802264584600262</v>
       </c>
-      <c r="G42">
+      <c r="G44">
         <f t="shared" si="6"/>
         <v>0.44117647058823528</v>
       </c>
-      <c r="H42">
+      <c r="H44">
         <f t="shared" si="0"/>
         <v>0.35909164091712381</v>
       </c>
-      <c r="I42">
+      <c r="I44">
         <f t="shared" si="3"/>
         <v>0.23287671232876711</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B43">
-        <f t="shared" si="4"/>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <f t="shared" si="5"/>
         <v>7.3139955007019697E-2</v>
       </c>
-      <c r="C43">
-        <f t="shared" si="5"/>
+      <c r="C45">
+        <f t="shared" si="4"/>
         <v>3.5093615427822504</v>
       </c>
-      <c r="D43">
+      <c r="D45">
         <f t="shared" si="1"/>
         <v>3.5007883087359386</v>
       </c>
-      <c r="E43">
+      <c r="E45">
         <v>3.5</v>
       </c>
-      <c r="F43">
+      <c r="F45">
         <f t="shared" si="2"/>
         <v>0.12436485596468826</v>
       </c>
-      <c r="G43">
+      <c r="G45">
         <f t="shared" si="6"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="H43">
+      <c r="H45">
         <f t="shared" si="0"/>
         <v>0.3595608884894857</v>
       </c>
-      <c r="I43">
+      <c r="I45">
         <f t="shared" si="3"/>
         <v>0.23333333333333334</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B44">
-        <f t="shared" si="4"/>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <f t="shared" si="5"/>
         <v>7.0113719075854467E-2</v>
       </c>
-      <c r="C44">
-        <f t="shared" si="5"/>
+      <c r="C46">
+        <f t="shared" si="4"/>
         <v>3.6088486804847664</v>
       </c>
-      <c r="D44">
+      <c r="D46">
         <f t="shared" si="1"/>
         <v>3.6007451220690778</v>
       </c>
-      <c r="E44">
+      <c r="E46">
         <v>3.6</v>
       </c>
-      <c r="F44">
+      <c r="F46">
         <f t="shared" si="2"/>
         <v>0.12091027663233581</v>
       </c>
-      <c r="G44">
+      <c r="G46">
         <f t="shared" si="6"/>
         <v>0.41666666666666663</v>
       </c>
-      <c r="H44">
+      <c r="H46">
         <f t="shared" si="0"/>
         <v>0.36000547698496255</v>
       </c>
-      <c r="I44">
+      <c r="I46">
         <f t="shared" si="3"/>
         <v>0.23376623376623376</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B45">
-        <f t="shared" si="4"/>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <f t="shared" si="5"/>
         <v>6.7290564136569767E-2</v>
       </c>
-      <c r="C45">
-        <f t="shared" si="5"/>
+      <c r="C47">
+        <f t="shared" si="4"/>
         <v>3.7083768370403631</v>
       </c>
-      <c r="D45">
+      <c r="D47">
         <f t="shared" si="1"/>
         <v>3.7007053894824873</v>
       </c>
-      <c r="E45">
+      <c r="E47">
         <v>3.7</v>
       </c>
-      <c r="F45">
+      <c r="F47">
         <f t="shared" si="2"/>
         <v>0.11764243131794834</v>
       </c>
-      <c r="G45">
+      <c r="G47">
         <f t="shared" si="6"/>
         <v>0.40540540540540537</v>
       </c>
-      <c r="H45">
+      <c r="H47">
         <f t="shared" si="0"/>
         <v>0.36042730079237945</v>
       </c>
-      <c r="I45">
+      <c r="I47">
         <f t="shared" si="3"/>
         <v>0.23417721518987342</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B46">
-        <f t="shared" si="4"/>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <f t="shared" si="5"/>
         <v>6.4651910111515901E-2</v>
       </c>
-      <c r="C46">
-        <f t="shared" si="5"/>
+      <c r="C48">
+        <f t="shared" si="4"/>
         <v>3.807941752014028</v>
       </c>
-      <c r="D46">
+      <c r="D48">
         <f t="shared" si="1"/>
         <v>3.8006687522171223</v>
       </c>
-      <c r="E46">
+      <c r="E48">
         <v>3.8</v>
       </c>
-      <c r="F46">
+      <c r="F48">
         <f t="shared" si="2"/>
         <v>0.11454657786221287</v>
       </c>
-      <c r="G46">
+      <c r="G48">
         <f t="shared" si="6"/>
         <v>0.39473684210526316</v>
       </c>
-      <c r="H46">
+      <c r="H48">
         <f t="shared" si="0"/>
         <v>0.36082806506344728</v>
       </c>
-      <c r="I46">
+      <c r="I48">
         <f t="shared" si="3"/>
         <v>0.23456790123456789</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B47">
-        <f t="shared" si="4"/>
-        <v>6.218130678660054E-2</v>
-      </c>
-      <c r="C47">
-        <f>E47+G47^2/(2*9.81)</f>
-        <v>3.9075397040816942</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="1"/>
-        <v>3.9</v>
-      </c>
-      <c r="E47">
-        <v>3.9</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="6"/>
-        <v>0.38461538461538464</v>
-      </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B48">
-        <f t="shared" si="4"/>
-        <v>5.9864142826321957E-2</v>
-      </c>
-      <c r="C48">
-        <f t="shared" si="5"/>
-        <v>4.0071674311926602</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E48">
-        <v>4</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="6"/>
-        <v>0.375</v>
-      </c>
-    </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B49">
-        <f t="shared" si="4"/>
-        <v>5.7687400631820901E-2</v>
+        <f t="shared" si="5"/>
+        <v>6.218130678660054E-2</v>
       </c>
       <c r="C49">
-        <f t="shared" si="5"/>
-        <v>4.1068220641928948</v>
+        <f>E49+G49^2/(2*9.81)</f>
+        <v>3.9075397040816942</v>
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
-        <v>4.0999999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="E49">
-        <v>4.0999999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="G49">
         <f t="shared" si="6"/>
-        <v>0.36585365853658541</v>
+        <v>0.38461538461538464</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B50">
-        <f t="shared" si="4"/>
-        <v>5.5639448905913345E-2</v>
+        <f t="shared" si="5"/>
+        <v>5.9864142826321957E-2</v>
       </c>
       <c r="C50">
-        <f t="shared" si="5"/>
-        <v>4.2065010713765627</v>
+        <f t="shared" si="4"/>
+        <v>4.0071674311926602</v>
       </c>
       <c r="D50">
         <f t="shared" si="1"/>
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="E50">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="G50">
         <f t="shared" si="6"/>
-        <v>0.35714285714285715</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B51">
-        <f t="shared" si="4"/>
-        <v>5.3709866387680244E-2</v>
+        <f t="shared" si="5"/>
+        <v>5.7687400631820901E-2</v>
       </c>
       <c r="C51">
-        <f t="shared" si="5"/>
-        <v>4.3062022119568724</v>
+        <f t="shared" si="4"/>
+        <v>4.1068220641928948</v>
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E51">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G51">
         <f t="shared" si="6"/>
-        <v>0.34883720930232559</v>
+        <v>0.36585365853658541</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B52">
-        <f t="shared" si="4"/>
-        <v>5.1889291474684435E-2</v>
+        <f t="shared" si="5"/>
+        <v>5.5639448905913345E-2</v>
       </c>
       <c r="C52">
-        <f t="shared" si="5"/>
-        <v>4.4059234968534389</v>
+        <f t="shared" si="4"/>
+        <v>4.2065010713765627</v>
       </c>
       <c r="D52">
         <f t="shared" si="1"/>
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="E52">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="G52">
         <f t="shared" si="6"/>
-        <v>0.34090909090909088</v>
+        <v>0.35714285714285715</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B53">
-        <f t="shared" si="4"/>
-        <v>5.0169293442858982E-2</v>
+        <f t="shared" si="5"/>
+        <v>5.3709866387680244E-2</v>
       </c>
       <c r="C53">
-        <f t="shared" si="5"/>
-        <v>4.5056631555102502</v>
+        <f t="shared" si="4"/>
+        <v>4.3062022119568724</v>
       </c>
       <c r="D53">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="E53">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="G53">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.34883720930232559</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B54">
-        <f t="shared" si="4"/>
-        <v>4.8542261762374014E-2</v>
+        <f t="shared" si="5"/>
+        <v>5.1889291474684435E-2</v>
       </c>
       <c r="C54">
-        <f t="shared" si="5"/>
-        <v>4.6054196077071152</v>
+        <f t="shared" si="4"/>
+        <v>4.4059234968534389</v>
       </c>
       <c r="D54">
         <f t="shared" si="1"/>
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E54">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G54">
         <f t="shared" si="6"/>
-        <v>0.32608695652173914</v>
+        <v>0.34090909090909088</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B55">
-        <f t="shared" si="4"/>
-        <v>4.7001310637600428E-2</v>
+        <f t="shared" si="5"/>
+        <v>5.0169293442858982E-2</v>
       </c>
       <c r="C55">
-        <f t="shared" si="5"/>
-        <v>4.7051914395238832</v>
+        <f t="shared" si="4"/>
+        <v>4.5056631555102502</v>
       </c>
       <c r="D55">
         <f t="shared" si="1"/>
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="E55">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="G55">
         <f t="shared" si="6"/>
-        <v>0.31914893617021273</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B56">
-        <f t="shared" si="4"/>
-        <v>4.5540196405121677E-2</v>
+        <f t="shared" si="5"/>
+        <v>4.8542261762374014E-2</v>
       </c>
       <c r="C56">
-        <f t="shared" si="5"/>
-        <v>4.8049773827726812</v>
+        <f t="shared" si="4"/>
+        <v>4.6054196077071152</v>
       </c>
       <c r="D56">
         <f t="shared" si="1"/>
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E56">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G56">
         <f t="shared" si="6"/>
-        <v>0.3125</v>
+        <v>0.32608695652173914</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B57">
-        <f t="shared" si="4"/>
-        <v>4.415324583202497E-2</v>
+        <f t="shared" si="5"/>
+        <v>4.7001310637600428E-2</v>
       </c>
       <c r="C57">
-        <f t="shared" si="5"/>
-        <v>4.9047762973378832</v>
+        <f t="shared" si="4"/>
+        <v>4.7051914395238832</v>
       </c>
       <c r="D57">
         <f t="shared" si="1"/>
-        <v>4.9000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="E57">
-        <v>4.9000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="G57">
         <f t="shared" si="6"/>
-        <v>0.30612244897959179</v>
+        <v>0.31914893617021273</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>4.5540196405121677E-2</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="4"/>
+        <v>4.8049773827726812</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>4.8</v>
+      </c>
+      <c r="E58">
+        <v>4.8</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="6"/>
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B59">
+        <f t="shared" si="5"/>
+        <v>4.415324583202497E-2</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="4"/>
+        <v>4.9047762973378832</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E59">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="6"/>
+        <v>0.30612244897959179</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B60">
+        <f t="shared" si="5"/>
         <v>4.2835293687811936E-2</v>
       </c>
-      <c r="C58">
-        <f t="shared" si="5"/>
+      <c r="C60">
+        <f t="shared" si="4"/>
         <v>5.0045871559633026</v>
       </c>
-      <c r="D58">
+      <c r="D60">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E58">
+      <c r="E60">
         <v>5</v>
       </c>
-      <c r="G58">
+      <c r="G60">
         <f t="shared" si="6"/>
         <v>0.3</v>
       </c>
